--- a/scraper/test1.xlsx
+++ b/scraper/test1.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javiera\Desktop\javiera_web\projectzero\projectzero\scraper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AD4B66-8F3D-444B-984B-3E56513E1262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="523">
   <si>
     <t>Title</t>
   </si>
@@ -64,13 +58,19 @@
     <t>Public Relations Intern - STUDENTS</t>
   </si>
   <si>
+    <t>Intern - Professional Development</t>
+  </si>
+  <si>
+    <t>Marketing Internship</t>
+  </si>
+  <si>
     <t>PROGRAMA DE PRÁCTICAS</t>
   </si>
   <si>
-    <t>Marketing Internship</t>
-  </si>
-  <si>
-    <t>Intern - Professional Development</t>
+    <t>Crypto Mining Solutions, Regional Specialist - Intern or Associate</t>
+  </si>
+  <si>
+    <t>Intern Concepts</t>
   </si>
   <si>
     <t>Practicante universitaria</t>
@@ -79,12 +79,6 @@
     <t>Asset Management Intern</t>
   </si>
   <si>
-    <t>Crypto Mining Solutions, Regional Specialist - Intern or Associate</t>
-  </si>
-  <si>
-    <t>Intern Concepts</t>
-  </si>
-  <si>
     <t>HP Intern</t>
   </si>
   <si>
@@ -100,12 +94,12 @@
     <t>Solutions Architect Internship</t>
   </si>
   <si>
+    <t>Development Intern</t>
+  </si>
+  <si>
     <t>INTERN - STATISTICS</t>
   </si>
   <si>
-    <t>Development Intern</t>
-  </si>
-  <si>
     <t>Research Intern</t>
   </si>
   <si>
@@ -133,84 +127,84 @@
     <t>Prácticas Chile - BI, Revenue y Marketing</t>
   </si>
   <si>
+    <t>Finance Internship</t>
+  </si>
+  <si>
+    <t>Product intern for a startup backed by early facebook and twitter investors</t>
+  </si>
+  <si>
+    <t>Human Resources Intern - STUDENTS</t>
+  </si>
+  <si>
+    <t>Intern - Legal (6 months)</t>
+  </si>
+  <si>
+    <t>INTERN - ECONOMIC AFFAIRS</t>
+  </si>
+  <si>
+    <t>CPFR - Temporary - R-39572</t>
+  </si>
+  <si>
+    <t>Marketing Analytics Intern</t>
+  </si>
+  <si>
+    <t>Apps Support Engineer, Intern</t>
+  </si>
+  <si>
+    <t>Software Support Intern</t>
+  </si>
+  <si>
+    <t>Onsite Engineer (L1)</t>
+  </si>
+  <si>
+    <t>Engineering Internship</t>
+  </si>
+  <si>
+    <t>QA Intern</t>
+  </si>
+  <si>
+    <t>Encargado de Compras Internas</t>
+  </si>
+  <si>
+    <t>Coordinador Cobranza Interna</t>
+  </si>
+  <si>
+    <t>Práctica Desarollo Organizacional - Santiago</t>
+  </si>
+  <si>
+    <t>Internos de Enfermería RedSalud - Santiago</t>
+  </si>
+  <si>
     <t>GO - Programa de Pasantías 2021 - Santiago</t>
   </si>
   <si>
-    <t>Finance Internship</t>
-  </si>
-  <si>
-    <t>Human Resources Intern - STUDENTS</t>
-  </si>
-  <si>
-    <t>CPFR - Temporary - R-39572</t>
-  </si>
-  <si>
-    <t>Intern - Legal (6 months)</t>
-  </si>
-  <si>
-    <t>INTERN - ECONOMIC AFFAIRS</t>
-  </si>
-  <si>
-    <t>Marketing Analytics Intern</t>
-  </si>
-  <si>
-    <t>Apps Support Engineer, Intern</t>
-  </si>
-  <si>
-    <t>Software Support Intern</t>
-  </si>
-  <si>
-    <t>Onsite Engineer (L1)</t>
-  </si>
-  <si>
-    <t>Product intern for a startup backed by early facebook and twitter investors</t>
-  </si>
-  <si>
-    <t>Engineering Internship</t>
-  </si>
-  <si>
-    <t>QA Intern</t>
-  </si>
-  <si>
-    <t>Encargado de Compras Internas</t>
-  </si>
-  <si>
-    <t>Coordinador Cobranza Interna</t>
-  </si>
-  <si>
-    <t>Práctica Desarollo Organizacional - Santiago</t>
-  </si>
-  <si>
-    <t>Internos de Enfermería RedSalud - Santiago</t>
-  </si>
-  <si>
     <t>Sales Internship</t>
   </si>
   <si>
     <t>Senior Development Manager</t>
   </si>
   <si>
+    <t>Internos de Enfermería RedSalud</t>
+  </si>
+  <si>
     <t>Memoristas Ingeniería Civil 6 meses Pasantía</t>
   </si>
   <si>
-    <t>Internos de Enfermería RedSalud</t>
-  </si>
-  <si>
     <t>Intern IT</t>
   </si>
   <si>
     <t>Data Science Intern Torre Labs</t>
   </si>
   <si>
+    <t>Finance Intern - Santiago</t>
+  </si>
+  <si>
+    <t>Internships: Science Journalism In Chile</t>
+  </si>
+  <si>
     <t>Intern - Economic Affairs, Santiago, Chile, Santiago, Chile (I-1) - Uncareer.net</t>
   </si>
   <si>
-    <t>Finance Intern - Santiago</t>
-  </si>
-  <si>
-    <t>Internships: Science Journalism In Chile</t>
-  </si>
-  <si>
     <t>CIB - Finance Legal Entity Control - Intern</t>
   </si>
   <si>
@@ -238,18 +232,15 @@
     <t>Encargada Sistema interno de Gestión 600.000 Líq. más Bono</t>
   </si>
   <si>
+    <t>Onsite Engineer (L1) - Santiago</t>
+  </si>
+  <si>
     <t>Vendedor Interno Exportaciones - Santiago</t>
   </si>
   <si>
-    <t>Onsite Engineer (L1) - Santiago</t>
-  </si>
-  <si>
     <t>Onsite Engineer (L1) - NTT</t>
   </si>
   <si>
-    <t>Pasantia Diseño Gráfico</t>
-  </si>
-  <si>
     <t>ENCARGADO ÁREA DE ADUANA INTERNA - STGO</t>
   </si>
   <si>
@@ -304,33 +295,33 @@
     <t>407569-Memoristas Ingeniería Civil 6 meses Pasantía</t>
   </si>
   <si>
+    <t>402770-Memoristas Ingeniería Civil 6 meses Pasantía</t>
+  </si>
+  <si>
     <t>Ejecutivo Back up /Sucursal Lo Marcoleta/ Concurso Interno - Estación Central</t>
   </si>
   <si>
-    <t>402770-Memoristas Ingeniería Civil 6 meses Pasantía</t>
+    <t>380975-Memoristas Ingeniería Civil 6 meses Pasantía</t>
+  </si>
+  <si>
+    <t>418461-Memoristas Ingeniería Civil 6 meses Pasantía</t>
   </si>
   <si>
     <t>Ejecutivo Back up / Sucursal Las rejas/ Concurso Interno - Lider Bci Servicios Financieros</t>
   </si>
   <si>
-    <t>418461-Memoristas Ingeniería Civil 6 meses Pasantía</t>
-  </si>
-  <si>
-    <t>380975-Memoristas Ingeniería Civil 6 meses Pasantía</t>
+    <t>410163-Memoristas Ingeniería Civil 6 meses Pasantía</t>
+  </si>
+  <si>
+    <t>397266-Memoristas Ingeniería Civil 6 meses Pasantía</t>
+  </si>
+  <si>
+    <t>393040-Memoristas Ingeniería Civil 6 meses Pasantía</t>
   </si>
   <si>
     <t>Ejecutivo Back up /Sucursal Independencia/ Concurso Interno - Lider Bci Servicios Financieros</t>
   </si>
   <si>
-    <t>410163-Memoristas Ingeniería Civil 6 meses Pasantía</t>
-  </si>
-  <si>
-    <t>397266-Memoristas Ingeniería Civil 6 meses Pasantía</t>
-  </si>
-  <si>
-    <t>393040-Memoristas Ingeniería Civil 6 meses Pasantía</t>
-  </si>
-  <si>
     <t>IKEA</t>
   </si>
   <si>
@@ -343,13 +334,19 @@
     <t>Huawei</t>
   </si>
   <si>
+    <t>McKinsey &amp; Company</t>
+  </si>
+  <si>
+    <t>Procter &amp; Gamble</t>
+  </si>
+  <si>
     <t>adidas</t>
   </si>
   <si>
-    <t>Procter &amp; Gamble</t>
-  </si>
-  <si>
-    <t>McKinsey &amp; Company</t>
+    <t>Ankr</t>
+  </si>
+  <si>
+    <t>PedidosYa</t>
   </si>
   <si>
     <t>Macflooring / Claro Oscuro</t>
@@ -361,12 +358,6 @@
     <t>Digevo</t>
   </si>
   <si>
-    <t>Ankr</t>
-  </si>
-  <si>
-    <t>PedidosYa</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -379,30 +370,30 @@
     <t>IBM</t>
   </si>
   <si>
+    <t>Red Hat</t>
+  </si>
+  <si>
+    <t>Sovos</t>
+  </si>
+  <si>
+    <t>United Nations ESCAP</t>
+  </si>
+  <si>
     <t>Cornershop by Uber</t>
   </si>
   <si>
-    <t>Red Hat</t>
-  </si>
-  <si>
-    <t>United Nations ESCAP</t>
-  </si>
-  <si>
-    <t>Sovos</t>
+    <t>GfK</t>
+  </si>
+  <si>
+    <t>ServiceRocket</t>
+  </si>
+  <si>
+    <t>MC+A</t>
   </si>
   <si>
     <t>Haip</t>
   </si>
   <si>
-    <t>GfK</t>
-  </si>
-  <si>
-    <t>ServiceRocket</t>
-  </si>
-  <si>
-    <t>MC+A</t>
-  </si>
-  <si>
     <t>Synopsys Inc</t>
   </si>
   <si>
@@ -421,51 +412,51 @@
     <t>Kimberly-Clark</t>
   </si>
   <si>
+    <t>Torre</t>
+  </si>
+  <si>
+    <t>The Kraft Heinz Company</t>
+  </si>
+  <si>
+    <t>NTT Ltd.</t>
+  </si>
+  <si>
+    <t>Robert Walters</t>
+  </si>
+  <si>
+    <t>GRUPO STT</t>
+  </si>
+  <si>
+    <t>Program of Immunology. Institute of Biomedical Sciences</t>
+  </si>
+  <si>
     <t>PUIG</t>
   </si>
   <si>
-    <t>The Kraft Heinz Company</t>
-  </si>
-  <si>
-    <t>NTT Ltd.</t>
-  </si>
-  <si>
-    <t>Torre</t>
-  </si>
-  <si>
-    <t>Robert Walters</t>
-  </si>
-  <si>
-    <t>GRUPO STT</t>
-  </si>
-  <si>
-    <t>Program of Immunology. Institute of Biomedical Sciences</t>
+    <t>Mainstream Renewable Power</t>
+  </si>
+  <si>
+    <t>Empresas Red Salud S.A.</t>
+  </si>
+  <si>
+    <t>Universidad Austral de Chile</t>
+  </si>
+  <si>
+    <t>Echeverría Izquierdo S.A</t>
   </si>
   <si>
     <t>Casa moda</t>
   </si>
   <si>
-    <t>Mainstream Renewable Power</t>
-  </si>
-  <si>
-    <t>Universidad Austral de Chile</t>
-  </si>
-  <si>
-    <t>Empresas Red Salud S.A.</t>
-  </si>
-  <si>
-    <t>Echeverría Izquierdo S.A</t>
-  </si>
-  <si>
     <t>Adidas</t>
   </si>
   <si>
+    <t>European Southern Observatory</t>
+  </si>
+  <si>
     <t>Uncareer.net</t>
   </si>
   <si>
-    <t>European Southern Observatory</t>
-  </si>
-  <si>
     <t>J.P. Morgan</t>
   </si>
   <si>
@@ -490,9 +481,6 @@
     <t>NTT</t>
   </si>
   <si>
-    <t>Bestwork English Institute</t>
-  </si>
-  <si>
     <t>Empresa estándar</t>
   </si>
   <si>
@@ -535,12 +523,12 @@
     <t xml:space="preserve">Hace 5 días </t>
   </si>
   <si>
+    <t>Hace 2 meses</t>
+  </si>
+  <si>
     <t>Hace 3 días</t>
   </si>
   <si>
-    <t>Hace 2 meses</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hace 4 días </t>
   </si>
   <si>
@@ -550,382 +538,376 @@
     <t>Hace 1 semana</t>
   </si>
   <si>
-    <t>Hace 3 horas</t>
+    <t>Hace 4 horas</t>
+  </si>
+  <si>
+    <t>Hace 7 días</t>
   </si>
   <si>
     <t>Hace 3 semanas</t>
   </si>
   <si>
-    <t>Hace 7 días</t>
+    <t xml:space="preserve">Hace 8 meses </t>
   </si>
   <si>
     <t xml:space="preserve">Hace 1 semana </t>
   </si>
   <si>
-    <t xml:space="preserve">Hace 8 meses </t>
-  </si>
-  <si>
     <t>Hace 1 mes</t>
   </si>
   <si>
     <t>Hace 4 semanas</t>
   </si>
   <si>
-    <t>Hace 16 horas</t>
+    <t>Hace 6 días</t>
+  </si>
+  <si>
+    <t>Hace 18 horas</t>
   </si>
   <si>
     <t>Hace 7 meses</t>
   </si>
   <si>
+    <t>Hace 8 meses</t>
+  </si>
+  <si>
+    <t>Hace 4 días</t>
+  </si>
+  <si>
+    <t>Hace 22 horas</t>
+  </si>
+  <si>
     <t>Hace 5 días</t>
   </si>
   <si>
-    <t>Hace 8 meses</t>
-  </si>
-  <si>
-    <t>Hace 4 días</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hace 2 semanas </t>
   </si>
   <si>
-    <t>Hace 20 horas</t>
-  </si>
-  <si>
-    <t>Hace 6 días</t>
-  </si>
-  <si>
     <t>Hace 4 meses</t>
   </si>
   <si>
-    <t>Hace 3 meses</t>
-  </si>
-  <si>
     <t>Hace 5 meses</t>
   </si>
   <si>
-    <t>https://cl.linkedin.com/jobs/view/ikea-internship-program-at-ikea-2592763334?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=cH4IGg1zUGGJYmB8w9R0fA%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/intern-program-at-the-est%C3%A9e-lauder-companies-inc-2565656546?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=SETXfTt41e8H6DpZczYslQ%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/public-relations-intern-at-didi-2567385714?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=gdtmCkmrSBxGK3nsNLP%2FFA%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/public-relations-intern-students-at-huawei-2597322728?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=ES132S0u%2Fg7Wv%2FPXz7BAzg%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/programa-de-pr%C3%A1cticas-at-adidas-2600427672?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=tKSDkyGu1XI6klxELzM%2FZQ%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/marketing-internship-at-procter-gamble-2517776531?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=TvTAvPSGLbVvSr4p2nm9ng%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/intern-professional-development-at-mckinsey-company-2577531079?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=1wC9QtoDdlf%2FE%2Fvu6hRqFw%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/practicante-universitaria-at-macflooring-claro-oscuro-2598522208?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=lmJSHxcBs40Uwc0uddg5YA%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/asset-management-intern-at-sonnedix-2507866260?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=JINmp4eiguMqOpORMAEjOA%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/practicante-universitaria-at-digevo-2581495912?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=EUJJ3hEkwgI1SujJ9EsoSQ%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/crypto-mining-solutions-regional-specialist-intern-or-associate-at-ankr-2604513039?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=fo5eZWZ1J9et3GLOh9fYwA%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/intern-concepts-at-pedidosya-2560833001?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=kTHRJGAZVb9Gw%2Fdd7Uj26g%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/hp-intern-at-hp-2496591395?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=nEg36uF%2B6WAVKx%2B%2FmDuRaQ%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/junior-marketing-specialist-trainee-remote-position-at-brainnest-2595900984?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=OPDqzjRMna4I01Kqqh5GXQ%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/crm-shopper-intern-at-cornershop-2591421670?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=EZ%2F0VSwooxGDqdI4x%2F338Q%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/programa-de-pr%C3%A1cticas-en-desarrollo-segundo-semestre-2021-at-ibm-2575387413?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=ptMJvRe1cyLM3qbh%2B%2FyiqA%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/crm-shopper-intern-at-cornershop-by-uber-2592522170?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=g%2B%2FNIvFJ%2BejlTDWKUbX0Ow%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/solutions-architect-internship-at-red-hat-2600275393?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=NskfAjC5zcgXxKuF9zxA0Q%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/intern-statistics-at-united-nations-escap-2584514219?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=0vaLHf7%2B5TN7b1oFtoaTrQ%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/development-intern-at-sovos-2593711890?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=rirLx%2F11kjX72SUUnuWbFQ%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/practicante-universitaria-at-haip-2588424313?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=AGTWwKW5BkNAjXGQzFBXZw%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/research-intern-at-gfk-2589267589?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=5bx4sjZQIxLxcZrzUezusA%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/apps-support-intern-at-servicerocket-2608123439?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=4HKv7%2FCBeRX3FRpbFof0BQ%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/it-internship-multiple-openings-at-mc%2Ba-2300240850?refId=GqAuLA84uxRhcRzUyVdVMw%3D%3D&amp;trackingId=qhmfjlSrPgrLjI56recBCQ%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/intern-technical-engineering-at-synopsys-inc-2566993786?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=ZxMEsmWXPq0ssxdS0ABCgg%3D%3D&amp;position=1&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/sdn-automation-developer-intern-santiago-at-nokia-2560858369?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=7r4uzm2yGVlUrLUdwrr%2Bnw%3D%3D&amp;position=2&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/pr%C3%A1ctica-marketing-at-multinacional-de-seguros-2589107193?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=HfLYg%2FAyMbHLJRcQSqVOFw%3D%3D&amp;position=3&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/graphic-design-intern-at-beetrack-2606919848?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=6p8eX%2BHRzUkiZn4Dp1D7dw%3D%3D&amp;position=4&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/pr%C3%A1ctica-profesional-en-ventas-sales-intern-chile-at-signify-2595612516?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=PjDqY8lhxe25WIY2GduqKg%3D%3D&amp;position=5&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/pr%C3%A1cticas-chile-bi-revenue-y-marketing-at-kimberly-clark-2573326606?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=tHYSVqFr%2B1jF8FjT%2FrsKFA%3D%3D&amp;position=6&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/go-programa-de-pasant%C3%ADas-2021-santiago-at-puig-2604733180?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=ygwkKsKfQAKH5rBsq7%2BmKA%3D%3D&amp;position=7&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/finance-internship-at-procter-gamble-2550430246?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=537G1slZepk9BVvLGtDaNw%3D%3D&amp;position=8&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/human-resources-intern-students-at-huawei-2597323584?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=3EcbdXXTEovsRnEAX5vygw%3D%3D&amp;position=9&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/cpfr-temporary-r-39572-at-the-kraft-heinz-company-2594154249?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=MeSptKfD2d6DCd0diJMmbQ%3D%3D&amp;position=10&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/intern-legal-6-months-at-mckinsey-company-2600496990?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=uYiJORtzG885smchLzwu6w%3D%3D&amp;position=11&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/intern-economic-affairs-at-united-nations-escap-2548939012?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=UecSodgpD52kxS1eWFu8Og%3D%3D&amp;position=12&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/marketing-analytics-intern-at-cornershop-by-uber-2608188360?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=VXLe7g9m2qA5zgsk2VglcA%3D%3D&amp;position=13&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/marketing-analytics-intern-at-cornershop-2519088343?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=infWAKSh8L4so3Y6KYvVig%3D%3D&amp;position=14&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/apps-support-engineer-intern-at-servicerocket-2599178878?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=cKSFU1ih88azubUa6JvMeA%3D%3D&amp;position=15&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/it-internship-multiple-openings-at-mc%2Ba-2604582767?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=%2BdxOgXtFdJ9gHYIrkZ20EQ%3D%3D&amp;position=16&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/intern-technical-engineering-at-synopsys-inc-2567800142?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=ZM0AoDt0ceJL5w7lOwUVig%3D%3D&amp;position=17&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/software-support-intern-at-sovos-2322720155?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=KY%2Fn%2BgpXq%2BWOZaY0ai4yyw%3D%3D&amp;position=18&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/onsite-engineer-l1-at-ntt-ltd-2581704237?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=p7d%2FXlbm9MvhCx42aysGJw%3D%3D&amp;position=19&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/product-intern-for-a-startup-backed-by-early-facebook-and-twitter-investors-at-torre-2601263838?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=H2wqGfXEMxJoMvKrr9eyOg%3D%3D&amp;position=20&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/engineering-internship-at-procter-gamble-2517775839?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=7RWXc%2B6wrv6Hd9bhso%2FD%2FQ%3D%3D&amp;position=21&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/qa-intern-at-sovos-2260012665?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=BnPqfUJMxk51Ti7Z3iIdqw%3D%3D&amp;position=22&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/encargado-de-compras-internas-at-robert-walters-2607711020?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=WlMxK%2Ftmgi2o9uz0lBRFyA%3D%3D&amp;position=23&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/coordinador-cobranza-interna-at-grupo-stt-2600500979?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=ZazdSsLp16veopjc0wiEnQ%3D%3D&amp;position=24&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/pr%C3%A1ctica-desarollo-organizacional-santiago-at-pedidosya-2593069198?refId=aPtmdHYAIpRIfqOGCQmOIA%3D%3D&amp;trackingId=z2RzEilAQGc2TVTSXnSmaA%3D%3D&amp;position=25&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/onsite-engineer-l1-at-ntt-ltd-2525673836?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=%2FBp7e3sMmqOfL4C4a1AjvQ%3D%3D&amp;position=1&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/internos-de-enfermer%C3%ADa-redsalud-santiago-at-program-of-immunology-institute-of-biomedical-sciences-2604726808?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=OOd5ddeYXkYyKP%2BnWYPaPg%3D%3D&amp;position=2&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/practicante-universitaria-at-casa-moda-2581890471?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=6peAryeMvd5F7sgwtswCYQ%3D%3D&amp;position=3&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/sales-internship-at-procter-gamble-2550430250?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=biRimbgmSpYmlInMC0n99w%3D%3D&amp;position=4&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/senior-development-manager-at-mainstream-renewable-power-2597337174?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=44ZASfh%2Fhsj%2FGKy4oCZdwg%3D%3D&amp;position=5&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-universidad-austral-de-chile-2602266204?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=uBn4IByuV2BhkwDqWURftA%3D%3D&amp;position=6&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/internos-de-enfermer%C3%ADa-redsalud-at-empresas-red-salud-s-a-2610114643?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=CJkXHFIbFGPbAZ9vJPPnLA%3D%3D&amp;position=7&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-s-a-2583702275?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=UR%2BJuTlp%2BK4s01uDho2Mbw%3D%3D&amp;position=8&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/coordinador-cobranza-interna-at-grupo-stt-2594805753?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=frK1GimP2ZsVqg4q4bhD%2FA%3D%3D&amp;position=9&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/programa-de-pr%C3%A1cticas-at-adidas-2605969651?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=pLhcziha7g3ilit0Hbnnhg%3D%3D&amp;position=10&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/hp-intern-at-hp-2609998309?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=gPXSidatfdb4A2zc8A7G5g%3D%3D&amp;position=11&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/crm-shopper-intern-at-cornershop-2603509412?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=1jnxryPt4FyPRjULvTKIfw%3D%3D&amp;position=12&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/intern-it-at-ntt-ltd-2608970465?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=M4RjmpxuDzXOUQT7VCjUWQ%3D%3D&amp;position=13&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/data-science-intern-torre-labs-at-torre-2603020794?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=fSvj4OZLohfLwDDlCaJXpQ%3D%3D&amp;position=14&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/intern-economic-affairs-santiago-chile-santiago-chile-i-1-uncareer-net-at-uncareer-net-2569539411?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=rtinoyJeAJylg%2B3l98MNUA%3D%3D&amp;position=15&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/finance-intern-santiago-at-ntt-ltd-2610133455?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=7%2FPp6ZMk6vfCqkoUWb69Xw%3D%3D&amp;position=16&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/internships-science-journalism-in-chile-at-european-southern-observatory-2601425811?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=UgvqV6v5lX2kTt1BzwLNgg%3D%3D&amp;position=17&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/cib-finance-legal-entity-control-intern-at-j-p-morgan-2592757706?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=gMvcaVCfNHP1SCCmmf2xpg%3D%3D&amp;position=18&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/associate-process-intern-santiago-at-ntt-ltd-2610132374?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=LPBoGiYIuIQA8rFE5Pqs1w%3D%3D&amp;position=19&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/intern-statistics-temporary-santiago-uncareer-net-at-uncareer-net-2604736266?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=S6buusLzMYAJ3edcNC334A%3D%3D&amp;position=20&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/graphic-design-intern-las-condes-at-beetrack-2542632162?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=EW2Llq0jP%2F2NGTue4VcivA%3D%3D&amp;position=21&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/pr%C3%A1cticas-y-pasant%C3%ADas-internacionales-at-komplement-2608659244?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=zDjKXR%2FYuuw2bb45zlZ1Tg%3D%3D&amp;position=22&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/cpfr-temporary-at-the-kraft-heinz-company-2603333509?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=jU%2By8W2pG6l%2FDvQWZe6Cyg%3D%3D&amp;position=23&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/cpfr-temporary-at-heinz-2603330922?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=3j0EIFaC8ClVF1sswJ1mKA%3D%3D&amp;position=24&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/cajero-a-interno-at-sodexo-chile-2594594177?refId=XiEhbUoOjx2qto8YhYL5WQ%3D%3D&amp;trackingId=koeY2plyt9DxEPZIzLHIAg%3D%3D&amp;position=25&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/asistente-de-soporte-cliente-interno-pudahuel-at-agencia-de-aduanas-jorge-stein-y-cia-ltda-2594592242?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=mLVdrkuHnU%2F6%2FI3FxPaePQ%3D%3D&amp;position=1&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/encargada-sistema-interno-de-gesti%C3%B3n-600-000-l%C3%ADq-m%C3%A1s-bono-at-isabel-gonzalez-2445210485?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=NjgqNhIIyhxSF965VTAHdQ%3D%3D&amp;position=2&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/encargada-sistema-interno-de-gesti%C3%B3n-600-000-l%C3%ADq-m%C3%A1s-bono-at-isabel-gonzalez-2608935219?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=5tw4lUPFIIGZZWAtGlxpNA%3D%3D&amp;position=3&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/vendedor-interno-exportaciones-santiago-at-ksb-2538412220?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=JiOl80SGQc4FRGAoKmCFMQ%3D%3D&amp;position=4&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/onsite-engineer-l1-santiago-at-ntt-ltd-2562862661?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=H3TyGim8gCB2fomARvN6oQ%3D%3D&amp;position=5&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/onsite-engineer-l1-ntt-at-ntt-2529194042?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=Lyd4f0r0QJUj6dSHILYsFQ%3D%3D&amp;position=6&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/pasantia-dise%C3%B1o-gr%C3%A1fico-at-bestwork-english-institute-2493352192?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=dB1W8b%2BkucNnD8TB6HbxKA%3D%3D&amp;position=7&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/encargado-%C3%A1rea-de-aduana-interna-stgo-at-empresa-est%C3%A1ndar-2551646340?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=m%2Bps1RVTLF2P52hBFyJvMA%3D%3D&amp;position=8&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/runner-interno-en-mall-huechuraba-at-grupoexpro-2589100912?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=UHPtuGXdSuRiDF0MZjf1CA%3D%3D&amp;position=9&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/conductor-movilizador-interno-camion-articulado-at-research-topo-2577029552?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=diQD2in5SWy4vutj2BP85g%3D%3D&amp;position=10&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/estudiantes-de-enfermer%C3%ADa-de-5to-a%C3%B1o-o-internos-de-la-carrera-at-huap-2608733335?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=HvrHSoy3V6cBaIsBLNOcLw%3D%3D&amp;position=11&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/egresado-t%C3%A9cnico-prevenci%C3%B3n-riesgos-las-condes-pasant%C3%ADa-at-grafton-recruitment-chile-2602266141?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=T8bgwBJ5qjXeNCZUoN%2B3gA%3D%3D&amp;position=12&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/internos-de-enfermer%C3%ADa-hospital-de-santiago-at-hospital-de-asistencia-2583601316?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=6TgafhLwX1GRi15e8rwPAQ%3D%3D&amp;position=13&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/analista-de-operaciones-internas-at-spread-2604582931?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=kLVHtJeH4jRsv4UN89Ztyw%3D%3D&amp;position=14&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/chofer-bus-minibus-lic-a2-a3-min-escondida-lic-interna-vigente-at-seal-corp-spa-2422475629?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=7MZyCWdvpRchSDSDH389LA%3D%3D&amp;position=15&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-las-rejas-concurso-interno-at-lider-bci-servicios-financieros-2608933197?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=w9BgcNztqoAwP5TPYI7HfA%3D%3D&amp;position=16&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-independencia-concurso-interno-at-lider-bci-servicios-financieros-2606854656?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=xPlQP5YMDl0i6DOw%2Br9w%2BQ%3D%3D&amp;position=17&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/jefe-a-de-aduana-interna-quilicura-at-empresa-est%C3%A1ndar-2565939746?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=Zz4cnDMJnP0T977Juj1l6Q%3D%3D&amp;position=18&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-lo-marcoleta-concurso-interno-at-lider-bci-servicios-financieros-2606872598?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=3CDYfKoJ5EgsUiv2PpepiA%3D%3D&amp;position=19&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/jefe-a-de-aduana-interna-log%C3%ADstica-quilicura-at-empresa-est%C3%A1ndar-2572862975?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=zdL0YY8B5I%2BYltc0EqrSHw%3D%3D&amp;position=20&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/426514-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2572802554?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=f5%2B8Ip1UlXGjsndn72xeEQ%3D%3D&amp;position=21&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/422854-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2569442366?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=VZBzBeh95ixTymLYTWzvRQ%3D%3D&amp;position=22&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/382442-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2518750739?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=yBkf%2F9LMXT7%2FxNAGq6O05w%3D%3D&amp;position=23&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/437316-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2584910299?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=KL%2BBju7PW4Hjni5a2csNeA%3D%3D&amp;position=24&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/407569-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2551518079?refId=xt3jOobdfOIeXI6ayxIGpg%3D%3D&amp;trackingId=zTdadf7D7FbUiDwtAx2FXw%3D%3D&amp;position=25&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-lo-marcoleta-concurso-interno-estaci%C3%B3n-central-at-lider-bci-servicios-financieros-2606893746?refId=wg54NmOv%2Flwh1MKvtlWsVQ%3D%3D&amp;trackingId=ILVKTG6A2LaihL2C2MHjyA%3D%3D&amp;position=1&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/402770-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2545915063?refId=wg54NmOv%2Flwh1MKvtlWsVQ%3D%3D&amp;trackingId=392jVivfHGOkCB5nv1oUgQ%3D%3D&amp;position=2&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-las-rejas-concurso-interno-lider-bci-servicios-financieros-at-lider-bci-servicios-financieros-2606997844?refId=wg54NmOv%2Flwh1MKvtlWsVQ%3D%3D&amp;trackingId=ggoX7u9hhhjciHYFW09Wxw%3D%3D&amp;position=3&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/418461-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2565833801?refId=wg54NmOv%2Flwh1MKvtlWsVQ%3D%3D&amp;trackingId=En74KxyQmzaLgjkWaoftdQ%3D%3D&amp;position=4&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/380975-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2517105471?refId=wg54NmOv%2Flwh1MKvtlWsVQ%3D%3D&amp;trackingId=9531bGf06hJWGb1rCpTOQQ%3D%3D&amp;position=5&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-independencia-concurso-interno-lider-bci-servicios-financieros-at-lider-bci-servicios-financieros-2606913674?refId=wg54NmOv%2Flwh1MKvtlWsVQ%3D%3D&amp;trackingId=gDAIpNGIA8Hjgt5UUOkbow%3D%3D&amp;position=6&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/410163-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2604509316?refId=wg54NmOv%2Flwh1MKvtlWsVQ%3D%3D&amp;trackingId=o693h7ihKoqIPhxTz7mBSQ%3D%3D&amp;position=7&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/397266-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2538230145?refId=wg54NmOv%2Flwh1MKvtlWsVQ%3D%3D&amp;trackingId=PzC5fLox8XupNhBqrU5LwA%3D%3D&amp;position=8&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>https://cl.linkedin.com/jobs/view/393040-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2533085929?refId=wg54NmOv%2Flwh1MKvtlWsVQ%3D%3D&amp;trackingId=W3k7p7LYYW6n5XXs7Ec1zw%3D%3D&amp;position=9&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+    <t>https://cl.linkedin.com/jobs/view/ikea-internship-program-at-ikea-2592763334?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=EwxA4pjSxGYf7LKXsykCUw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/intern-program-at-the-est%C3%A9e-lauder-companies-inc-2565656546?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=PAIxspF6wAc54L7BjHDPgg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/public-relations-intern-at-didi-2567385714?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=LLT3CtPaDUbz5HwGtsCCZQ%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/public-relations-intern-students-at-huawei-2597322728?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=Vgrrg6Y34ZmsPlAOWn6sFA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/intern-professional-development-at-mckinsey-company-2577531079?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=WNkbkKeT%2BgV7y2RuPG2OIg%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/marketing-internship-at-procter-gamble-2517776531?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=LPsYzLUBJbVkCWtj3LLRiw%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/programa-de-pr%C3%A1cticas-at-adidas-2600427672?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=hGH5gm7Y%2BbngWb3YkIBL1g%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/crypto-mining-solutions-regional-specialist-intern-or-associate-at-ankr-2604513039?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=aR6Oc90tAh1yZ%2FV8wKIicA%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/intern-concepts-at-pedidosya-2560833001?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=LrORx%2FvzEe4F9De5tb6PWg%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/practicante-universitaria-at-macflooring-claro-oscuro-2598522208?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=yBBgUYwTds9Cl%2BsnXhGjqg%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/asset-management-intern-at-sonnedix-2507866260?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=5tOU00qXN0zCCUq15areSw%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/practicante-universitaria-at-digevo-2581495912?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=2qe1CdPBg0jrZ5JOSj1PdA%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/hp-intern-at-hp-2496591395?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=GmaZb01lBSw32BxbZt3UUg%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/junior-marketing-specialist-trainee-remote-position-at-brainnest-2595900984?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=GEHAfdeJCR3IsotD8Z5CnA%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/crm-shopper-intern-at-cornershop-2591421670?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=0AEgSzOWW9%2FpVDMLN85pqw%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/programa-de-pr%C3%A1cticas-en-desarrollo-segundo-semestre-2021-at-ibm-2575387413?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=F5eP8dCKkk%2F0MT3%2FB%2FILkQ%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/solutions-architect-internship-at-red-hat-2600275393?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=A%2Bl0bnT%2By68attA3kvU6Qg%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/development-intern-at-sovos-2593711890?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=iu1c6sU6qlT56q0Q8S%2BIBg%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/intern-statistics-at-united-nations-escap-2584514219?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=oR4BoQ73I%2FHPWOYuiIExcw%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/crm-shopper-intern-at-cornershop-by-uber-2592522170?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=8sU%2FlINrOOJkFEZPn%2Bw8vw%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/research-intern-at-gfk-2589267589?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=ZLQ4rpMEqDpAj4bvrFY9hQ%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/apps-support-intern-at-servicerocket-2608123439?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=wz%2BTOxrsnVU0%2Fxa3Rsl%2FPA%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/it-internship-multiple-openings-at-mc%2Ba-2300240850?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=lKYV9m4NJBqqTkczjA1tWg%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/practicante-universitaria-at-haip-2588424313?refId=uLhX5iLCHldEoO80AiCWIw%3D%3D&amp;trackingId=N1QjSQBHiL%2FAitPdRxeHSQ%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/intern-technical-engineering-at-synopsys-inc-2566993786?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=SEUZRlT6%2FHqtfW2YvmG6%2BA%3D%3D&amp;position=1&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/sdn-automation-developer-intern-santiago-at-nokia-2560858369?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=FM8kYhmp86vYWtkD6%2BuONg%3D%3D&amp;position=2&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/pr%C3%A1ctica-marketing-at-multinacional-de-seguros-2589107193?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=lcvjtTDPoD3iraOWJtvELA%3D%3D&amp;position=3&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/graphic-design-intern-at-beetrack-2606919848?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=%2FoYAlmYdF8YwiMsu9hkgCw%3D%3D&amp;position=4&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/pr%C3%A1ctica-profesional-en-ventas-sales-intern-chile-at-signify-2595612516?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=G7W6Na%2FY3gfeoAOLiRGPaw%3D%3D&amp;position=5&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/pr%C3%A1cticas-chile-bi-revenue-y-marketing-at-kimberly-clark-2573326606?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=OdavWICOEZ5BEy9Div9iRA%3D%3D&amp;position=6&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/finance-internship-at-procter-gamble-2550430246?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=Gl8ZFCUFHT28P4FQEWtc8w%3D%3D&amp;position=7&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/product-intern-for-a-startup-backed-by-early-facebook-and-twitter-investors-at-torre-2601263838?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=ra48ip3Yhd7bV3yFfN0B5A%3D%3D&amp;position=8&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/human-resources-intern-students-at-huawei-2597323584?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=ba0N9WpiBep3RMg7fhwcRQ%3D%3D&amp;position=9&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/intern-legal-6-months-at-mckinsey-company-2600496990?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=3GkGhQzJmNcnto%2Bia52DBg%3D%3D&amp;position=10&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/intern-economic-affairs-at-united-nations-escap-2548939012?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=ugBHzMzzz0MZYkjZhGQ8yA%3D%3D&amp;position=11&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/cpfr-temporary-r-39572-at-the-kraft-heinz-company-2594154249?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=8%2BTkTEtpOwrjgclFGXK9dQ%3D%3D&amp;position=12&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/marketing-analytics-intern-at-cornershop-by-uber-2608188360?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=Pj2RPqe%2FzKbs2XIMz8GL%2BA%3D%3D&amp;position=13&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/marketing-analytics-intern-at-cornershop-2519088343?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=vQSuMLuX16cDgP8gZr0LxA%3D%3D&amp;position=14&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/apps-support-engineer-intern-at-servicerocket-2599178878?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=0xpOKuGwP3r46aD6ndtLAw%3D%3D&amp;position=15&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/it-internship-multiple-openings-at-mc%2Ba-2604582767?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=LxWrok0%2BK1cTwR%2BYHXE8pg%3D%3D&amp;position=16&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/intern-technical-engineering-at-synopsys-inc-2567800142?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=90KT3i8xwgiYsB890xS%2FYg%3D%3D&amp;position=17&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/software-support-intern-at-sovos-2322720155?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=KioRe%2Fqe%2Fa8mXJdvu6p2VA%3D%3D&amp;position=18&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/onsite-engineer-l1-at-ntt-ltd-2581704237?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=V%2BHtTHu7E1Sl44OPzSHfkQ%3D%3D&amp;position=19&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/engineering-internship-at-procter-gamble-2517775839?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=mdL3Ky6mwx0cPpLXWGXoQQ%3D%3D&amp;position=20&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/hp-intern-at-hp-2609998309?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=ifrP8G4NnmT3nLUBB4fnfA%3D%3D&amp;position=21&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/qa-intern-at-sovos-2260012665?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=FO4g9R82MOJBnHWS0%2BBzhA%3D%3D&amp;position=22&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/encargado-de-compras-internas-at-robert-walters-2607711020?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=ReoAEPdjCnWfu8LuSApgyA%3D%3D&amp;position=23&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/coordinador-cobranza-interna-at-grupo-stt-2600500979?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=TvlX02OKc6a7CtGqJnj%2FGg%3D%3D&amp;position=24&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/pr%C3%A1ctica-desarollo-organizacional-santiago-at-pedidosya-2593069198?refId=Vp8aU2ksEBbIkFk6%2B4L7Yg%3D%3D&amp;trackingId=eNK7msb7UVSlohsw47cLlg%3D%3D&amp;position=25&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/onsite-engineer-l1-at-ntt-ltd-2525673836?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=BzywjOOyLc2jUegMS4cFSg%3D%3D&amp;position=1&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/internos-de-enfermer%C3%ADa-redsalud-santiago-at-program-of-immunology-institute-of-biomedical-sciences-2604726808?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=%2FYScznCeSmqhkXkJ1jQygg%3D%3D&amp;position=2&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/go-programa-de-pasant%C3%ADas-2021-santiago-at-puig-2604733180?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=nEcd2j4h%2BSOQVMwbQUpQWA%3D%3D&amp;position=3&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/sales-internship-at-procter-gamble-2550430250?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=YZcGDk0TU3X0%2BlPnh3TFPg%3D%3D&amp;position=4&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/senior-development-manager-at-mainstream-renewable-power-2597337174?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=z1unAi7mRDtfeQeqmjqs7w%3D%3D&amp;position=5&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/internos-de-enfermer%C3%ADa-redsalud-at-empresas-red-salud-s-a-2610114643?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=5g%2BmDThJvEmSD1mxkQ1Sxw%3D%3D&amp;position=6&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-universidad-austral-de-chile-2602266204?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=vSO%2FLsCmw7%2FCUHhsD9%2B%2BGw%3D%3D&amp;position=7&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-s-a-2583702275?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=31r1fTehMEVHh5p3tAlgBQ%3D%3D&amp;position=8&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/coordinador-cobranza-interna-at-grupo-stt-2594805753?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=oqFuKqK7YZFtJb%2F%2FMUjWzQ%3D%3D&amp;position=9&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/practicante-universitaria-at-casa-moda-2581890471?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=B36YSG2BZUDPK1comtBh9A%3D%3D&amp;position=10&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/programa-de-pr%C3%A1cticas-at-adidas-2605969651?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=gMWH24J5R7uyFJQ7agnoZg%3D%3D&amp;position=11&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/crm-shopper-intern-at-cornershop-2603509412?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=VfyoHTv%2BXWKEFkt%2B71L2nQ%3D%3D&amp;position=12&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/intern-it-at-ntt-ltd-2608970465?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=OAq6IGVXSfdEOIYo8lM78A%3D%3D&amp;position=13&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/data-science-intern-torre-labs-at-torre-2603020794?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=6kYBWzdhekk7dxKmAyeeAg%3D%3D&amp;position=14&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/finance-intern-santiago-at-ntt-ltd-2610133455?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=MY63onxXkkDVNRut3ksJwQ%3D%3D&amp;position=15&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/internships-science-journalism-in-chile-at-european-southern-observatory-2601425811?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=6CC5hAMt6rjUwRs9q7W%2F3g%3D%3D&amp;position=16&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/intern-economic-affairs-santiago-chile-santiago-chile-i-1-uncareer-net-at-uncareer-net-2569539411?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=EytmQhgfSDE9q49tOVc4Sg%3D%3D&amp;position=17&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/cib-finance-legal-entity-control-intern-at-j-p-morgan-2592757706?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=3pf48eTzDxM9MNzkyPxtbw%3D%3D&amp;position=18&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/associate-process-intern-santiago-at-ntt-ltd-2610132374?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=cqRS14i2r47KyUk3cqYwzA%3D%3D&amp;position=19&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/intern-statistics-temporary-santiago-uncareer-net-at-uncareer-net-2604736266?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=DBQ0s3wFWGOXMKLebrATgw%3D%3D&amp;position=20&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/graphic-design-intern-las-condes-at-beetrack-2542632162?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=Ly9K7lVuIK%2BLUtR806K0Nw%3D%3D&amp;position=21&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/pr%C3%A1cticas-y-pasant%C3%ADas-internacionales-at-komplement-2608659244?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=5sPpLa9MFO90y9j94BkXDQ%3D%3D&amp;position=22&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/cpfr-temporary-at-the-kraft-heinz-company-2603333509?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=llU4OjSv34XXuA9fp2o2Nw%3D%3D&amp;position=23&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/cpfr-temporary-at-heinz-2603330922?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=WPE%2BclJchKw7XlkvkwolsA%3D%3D&amp;position=24&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/cajero-a-interno-at-sodexo-chile-2594594177?refId=Znk0Xa1RtKQqA%2BFPuQwuUw%3D%3D&amp;trackingId=LXXhZAKitWc3ZsOqTt124w%3D%3D&amp;position=25&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/asistente-de-soporte-cliente-interno-pudahuel-at-agencia-de-aduanas-jorge-stein-y-cia-ltda-2594592242?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=0ypNgdz84NvgepwPgmmyBA%3D%3D&amp;position=1&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/encargada-sistema-interno-de-gesti%C3%B3n-600-000-l%C3%ADq-m%C3%A1s-bono-at-isabel-gonzalez-2608935219?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=tE401rHHtUvcv2%2FOX99lwg%3D%3D&amp;position=2&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/onsite-engineer-l1-santiago-at-ntt-ltd-2562862661?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=lKcxx%2FkhG4q4oSjOW4dnnw%3D%3D&amp;position=3&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/encargada-sistema-interno-de-gesti%C3%B3n-600-000-l%C3%ADq-m%C3%A1s-bono-at-isabel-gonzalez-2445210485?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=I6XhtN%2BzgJ3ythTRK9Un%2Fw%3D%3D&amp;position=4&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/vendedor-interno-exportaciones-santiago-at-ksb-2538412220?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=IZqB6G1x5EzmTA%2BfvK1kxQ%3D%3D&amp;position=5&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/onsite-engineer-l1-ntt-at-ntt-2529194042?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=gdX1DGQKSpNON%2B5MhIpRXw%3D%3D&amp;position=6&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/encargado-%C3%A1rea-de-aduana-interna-stgo-at-empresa-est%C3%A1ndar-2551646340?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=g7WsiKu%2BMObnp2wpdeyGyw%3D%3D&amp;position=7&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/runner-interno-en-mall-huechuraba-at-grupoexpro-2589100912?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=Lg6DsL4LNZIJH%2FPDXRCoOA%3D%3D&amp;position=8&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/conductor-movilizador-interno-camion-articulado-at-research-topo-2577029552?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=vGv%2B2K94dNPLuaLAQsmMDw%3D%3D&amp;position=9&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/estudiantes-de-enfermer%C3%ADa-de-5to-a%C3%B1o-o-internos-de-la-carrera-at-huap-2608733335?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=lA3zEoSzBIEBwKWJKl9bmA%3D%3D&amp;position=10&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/egresado-t%C3%A9cnico-prevenci%C3%B3n-riesgos-las-condes-pasant%C3%ADa-at-grafton-recruitment-chile-2602266141?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=jkXmtkhNzeTzmvMhAzGy1A%3D%3D&amp;position=11&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/internos-de-enfermer%C3%ADa-hospital-de-santiago-at-hospital-de-asistencia-2583601316?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=rYLRtSgyOTrXa%2BofnfduEA%3D%3D&amp;position=12&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/analista-de-operaciones-internas-at-spread-2604582931?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=FiGwHX2Ii6TZw2j793872A%3D%3D&amp;position=13&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/chofer-bus-minibus-lic-a2-a3-min-escondida-lic-interna-vigente-at-seal-corp-spa-2422475629?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=HQqU0gyH8b%2FjAtB%2FFz%2Bl3A%3D%3D&amp;position=14&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-las-rejas-concurso-interno-at-lider-bci-servicios-financieros-2608933197?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=K%2BXkfaKDdZtBmtz1sykLNg%3D%3D&amp;position=15&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-independencia-concurso-interno-at-lider-bci-servicios-financieros-2606854656?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=n5WCFSWK%2Fkp8TKU6TbZClg%3D%3D&amp;position=16&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/jefe-a-de-aduana-interna-quilicura-at-empresa-est%C3%A1ndar-2565939746?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=ZjZGbZQFL%2BwPqMV3vS5StQ%3D%3D&amp;position=17&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-lo-marcoleta-concurso-interno-at-lider-bci-servicios-financieros-2606872598?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=R4tdzMsBbmW9ysbc7rWN8w%3D%3D&amp;position=18&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/jefe-a-de-aduana-interna-log%C3%ADstica-quilicura-at-empresa-est%C3%A1ndar-2572862975?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=4aHdg6BHmHe%2BpdNPeVo9bA%3D%3D&amp;position=19&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/426514-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2572802554?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=ERJf1xK144MbdgFLNttoXA%3D%3D&amp;position=20&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/422854-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2569442366?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=Oh4RqWRuH1fBXYlx1IiRZw%3D%3D&amp;position=21&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/382442-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2518750739?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=2MpWoujpqDyeYfDaLjL7ng%3D%3D&amp;position=22&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/437316-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2584910299?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=EBNNfrnbfpS5z%2Fj1SZWEjQ%3D%3D&amp;position=23&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/407569-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2551518079?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=eOXZ3TwWEd87m6IKoSxqLA%3D%3D&amp;position=24&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/402770-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2545915063?refId=59ENkeyW%2BeFFiCzbeoSvlw%3D%3D&amp;trackingId=w1570uPjcrBc4vGbL4OCqQ%3D%3D&amp;position=25&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-lo-marcoleta-concurso-interno-estaci%C3%B3n-central-at-lider-bci-servicios-financieros-2606893746?refId=udvx8oI7LB5oQ6WkvOlNBQ%3D%3D&amp;trackingId=ICg54GXSyJ2qecnLJJR8PQ%3D%3D&amp;position=1&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/380975-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2517105471?refId=udvx8oI7LB5oQ6WkvOlNBQ%3D%3D&amp;trackingId=kI17gfzWwf6eM%2F4QgmD%2F1g%3D%3D&amp;position=2&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/418461-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2565833801?refId=udvx8oI7LB5oQ6WkvOlNBQ%3D%3D&amp;trackingId=E6isJ%2FLlxOnYukA%2FeSIfow%3D%3D&amp;position=3&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-las-rejas-concurso-interno-lider-bci-servicios-financieros-at-lider-bci-servicios-financieros-2606997844?refId=udvx8oI7LB5oQ6WkvOlNBQ%3D%3D&amp;trackingId=A1kC77qXoV985QvhZFTvpw%3D%3D&amp;position=4&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/410163-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2604509316?refId=udvx8oI7LB5oQ6WkvOlNBQ%3D%3D&amp;trackingId=P0hAfq1HFEDuf1wqbj27bA%3D%3D&amp;position=5&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/397266-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2538230145?refId=udvx8oI7LB5oQ6WkvOlNBQ%3D%3D&amp;trackingId=iE4G85zu%2FcMP7F1s42OHsQ%3D%3D&amp;position=6&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/393040-memoristas-ingenier%C3%ADa-civil-6-meses-pasant%C3%ADa-at-echeverr%C3%ADa-izquierdo-2533085929?refId=udvx8oI7LB5oQ6WkvOlNBQ%3D%3D&amp;trackingId=%2BSrKDfqScmm8%2BCcdIS%2FyNg%3D%3D&amp;position=7&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>https://cl.linkedin.com/jobs/view/ejecutivo-back-up-sucursal-independencia-concurso-interno-lider-bci-servicios-financieros-at-lider-bci-servicios-financieros-2606913674?refId=udvx8oI7LB5oQ6WkvOlNBQ%3D%3D&amp;trackingId=4j4AM2PaaNRKylkZTu4Ypw%3D%3D&amp;position=8&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
   </si>
   <si>
     <t>https://media-exp1.licdn.com/dms/image/C4E0BAQHFZRoCWlWZ-g/company-logo_100_100/0/1560845690429?e=1632355200&amp;v=beta&amp;t=xIZBZRfnz_kUgqu6ub5VEWuLzr__Tf1AuNEyKlQO5MQ</t>
@@ -940,13 +922,19 @@
     <t>https://media-exp3.licdn.com/dms/image/C510BAQEtZ01_ey5nIA/company-logo_100_100/0/1586016478298?e=1632355200&amp;v=beta&amp;t=o8yNXXcaIH2haoOdv_wnmVTV76DPjFj7ch_CS1MP6bo</t>
   </si>
   <si>
+    <t>https://media-exp3.licdn.com/dms/image/C4D0BAQGMFxsIGLWunw/company-logo_100_100/0/1624281463611?e=1632355200&amp;v=beta&amp;t=ob7_O0Vv0HEcymvggu0EwvdRp549WS2Hh-PB2WWKu-k</t>
+  </si>
+  <si>
+    <t>https://media-exp3.licdn.com/dms/image/C4E0BAQGMf2S5oM84FQ/company-logo_100_100/0/1611066356544?e=1632355200&amp;v=beta&amp;t=TDJ7u3Rbanz-chRzxX_OdB9eAvPQQRsXmOmbEZVa1Mk</t>
+  </si>
+  <si>
     <t>https://media-exp1.licdn.com/dms/image/C4D0BAQEndsJJQbWEDA/company-logo_100_100/0/1619702777322?e=1632355200&amp;v=beta&amp;t=H-I3T58i35iFgKr_-ARg2uBxLnPBwc6TUh7YUgH09DM</t>
   </si>
   <si>
-    <t>https://media-exp3.licdn.com/dms/image/C4E0BAQGMf2S5oM84FQ/company-logo_100_100/0/1611066356544?e=1632355200&amp;v=beta&amp;t=TDJ7u3Rbanz-chRzxX_OdB9eAvPQQRsXmOmbEZVa1Mk</t>
-  </si>
-  <si>
-    <t>https://media-exp3.licdn.com/dms/image/C4D0BAQGMFxsIGLWunw/company-logo_100_100/0/1624281463611?e=1632355200&amp;v=beta&amp;t=ob7_O0Vv0HEcymvggu0EwvdRp549WS2Hh-PB2WWKu-k</t>
+    <t>https://media-exp1.licdn.com/dms/image/C4D0BAQGkSHNcVndLOg/company-logo_100_100/0/1601904628916?e=1632355200&amp;v=beta&amp;t=t_14j6Z9EIUQVuSq6D5eqv0jIa9cNQNRXtLHsMbwP80</t>
+  </si>
+  <si>
+    <t>https://media-exp1.licdn.com/dms/image/C4D0BAQH7IjoCNSFYFQ/company-logo_100_100/0/1610978436293?e=1632355200&amp;v=beta&amp;t=baXxxmWFAuj2F-EcBGt7GNf4elkfT6sMPEeYOx9JJPQ</t>
   </si>
   <si>
     <t>https://static-exp1.licdn.com/sc/h/9a9u41thxt325ucfh5z8ga4m8</t>
@@ -958,12 +946,6 @@
     <t>https://media-exp3.licdn.com/dms/image/C4E0BAQFUr0ZAkxQy0Q/company-logo_100_100/0/1576523518900?e=1632355200&amp;v=beta&amp;t=MHWBzqEAeeCWGnLS2v3f9UbPjz4YqepGOa-rLs3YwjI</t>
   </si>
   <si>
-    <t>https://media-exp1.licdn.com/dms/image/C4D0BAQGkSHNcVndLOg/company-logo_100_100/0/1601904628916?e=1632355200&amp;v=beta&amp;t=t_14j6Z9EIUQVuSq6D5eqv0jIa9cNQNRXtLHsMbwP80</t>
-  </si>
-  <si>
-    <t>https://media-exp1.licdn.com/dms/image/C4D0BAQH7IjoCNSFYFQ/company-logo_100_100/0/1610978436293?e=1632355200&amp;v=beta&amp;t=baXxxmWFAuj2F-EcBGt7GNf4elkfT6sMPEeYOx9JJPQ</t>
-  </si>
-  <si>
     <t>https://media-exp3.licdn.com/dms/image/C4E0BAQE5ogfksGIFow/company-logo_100_100/0/1623050726756?e=1632355200&amp;v=beta&amp;t=EWpuKRaj4nUjo-3o59hdaOA-V5-ZyZk2nPT2Amc9oOk</t>
   </si>
   <si>
@@ -976,30 +958,30 @@
     <t>https://media-exp1.licdn.com/dms/image/C4D0BAQEjqi8YNMCCUw/company-logo_100_100/0/1622553093286?e=1632355200&amp;v=beta&amp;t=1insbWpgVuAqS8zUWDQ6g0xBZxwFhByfwaOktZFr8H0</t>
   </si>
   <si>
+    <t>https://media-exp1.licdn.com/dms/image/C4E0BAQEto-TydTTIfQ/company-logo_100_100/0/1556712048684?e=1632355200&amp;v=beta&amp;t=tyegvX9pXVa5WKp2WkjWok6VEyEb68nolN38Vw7uDl8</t>
+  </si>
+  <si>
+    <t>https://media-exp3.licdn.com/dms/image/C4E0BAQEcM_VqUIRTLw/company-logo_100_100/0/1544126355555?e=1632355200&amp;v=beta&amp;t=3zpi7SflLZIcVo4ICzSMFQ2Z3rtUj1mkWwVsHTpbqYo</t>
+  </si>
+  <si>
+    <t>https://media-exp3.licdn.com/dms/image/C4D0BAQEpQnto4hc8TA/company-logo_100_100/0/1519925169649?e=1632355200&amp;v=beta&amp;t=ZAk1E0gfWvsFdmuCQ28sMmitCh-PA9n3NN3_VDnsibk</t>
+  </si>
+  <si>
     <t>https://media-exp1.licdn.com/dms/image/C4D0BAQFxPqyQD4Xkow/company-logo_100_100/0/1623176653042?e=1632355200&amp;v=beta&amp;t=b3fE_8vTdCqNdAf6TdbwpcU2xymEF844c40pbnZe9pE</t>
   </si>
   <si>
-    <t>https://media-exp1.licdn.com/dms/image/C4E0BAQEto-TydTTIfQ/company-logo_100_100/0/1556712048684?e=1632355200&amp;v=beta&amp;t=tyegvX9pXVa5WKp2WkjWok6VEyEb68nolN38Vw7uDl8</t>
-  </si>
-  <si>
-    <t>https://media-exp3.licdn.com/dms/image/C4D0BAQEpQnto4hc8TA/company-logo_100_100/0/1519925169649?e=1632355200&amp;v=beta&amp;t=ZAk1E0gfWvsFdmuCQ28sMmitCh-PA9n3NN3_VDnsibk</t>
-  </si>
-  <si>
-    <t>https://media-exp3.licdn.com/dms/image/C4E0BAQEcM_VqUIRTLw/company-logo_100_100/0/1544126355555?e=1632355200&amp;v=beta&amp;t=3zpi7SflLZIcVo4ICzSMFQ2Z3rtUj1mkWwVsHTpbqYo</t>
+    <t>https://media-exp3.licdn.com/dms/image/C4D0BAQGkvXRvl4uxtg/company-logo_100_100/0/1623338026334?e=1632355200&amp;v=beta&amp;t=ZLc2uhzTBwAvshMY_1pQ7i-iZRcFemHgOon7VMUBkCA</t>
+  </si>
+  <si>
+    <t>https://media-exp3.licdn.com/dms/image/C560BAQEsP_kv5KRpbQ/company-logo_100_100/0/1623080252245?e=1632355200&amp;v=beta&amp;t=U8dVsgy2Jbh7zCkVgJax_Yx2se5PqIEwCV3ghMa_mjw</t>
+  </si>
+  <si>
+    <t>https://media-exp3.licdn.com/dms/image/C4D0BAQFeEw0PpGktzQ/company-logo_100_100/0/1553807548928?e=1632355200&amp;v=beta&amp;t=5KdADM2P924uXNhN5tiZO7bE6Q_swXsq0lvw_n7sumM</t>
   </si>
   <si>
     <t>https://media-exp1.licdn.com/dms/image/C4E0BAQFq4-c1IyzlCg/company-logo_100_100/0/1598555486286?e=1632355200&amp;v=beta&amp;t=-6ZaLqdRC0acHqm22ocgSpABc_1ORNyF0NwSuDc5RN8</t>
   </si>
   <si>
-    <t>https://media-exp3.licdn.com/dms/image/C4D0BAQGkvXRvl4uxtg/company-logo_100_100/0/1623338026334?e=1632355200&amp;v=beta&amp;t=ZLc2uhzTBwAvshMY_1pQ7i-iZRcFemHgOon7VMUBkCA</t>
-  </si>
-  <si>
-    <t>https://media-exp3.licdn.com/dms/image/C560BAQEsP_kv5KRpbQ/company-logo_100_100/0/1623080252245?e=1632355200&amp;v=beta&amp;t=U8dVsgy2Jbh7zCkVgJax_Yx2se5PqIEwCV3ghMa_mjw</t>
-  </si>
-  <si>
-    <t>https://media-exp3.licdn.com/dms/image/C4D0BAQFeEw0PpGktzQ/company-logo_100_100/0/1553807548928?e=1632355200&amp;v=beta&amp;t=5KdADM2P924uXNhN5tiZO7bE6Q_swXsq0lvw_n7sumM</t>
-  </si>
-  <si>
     <t>https://media-exp1.licdn.com/dms/image/C4E0BAQEq7MVORIs3MA/company-logo_100_100/0/1519855929274?e=1632355200&amp;v=beta&amp;t=bROmlS_A2BrY69TPmkkmLrefKp9esLqGvoHwBEPqb80</t>
   </si>
   <si>
@@ -1039,7 +1021,7 @@
     <t>https://media-exp3.licdn.com/dms/image/C4D0BAQEk3UKCoJtnWw/company-logo_100_100/0/1519915116422?e=1632355200&amp;v=beta&amp;t=uiyfOO1lQ_uGqD0Pi228VJeaFsmzl4rBUK5o03O3e-M</t>
   </si>
   <si>
-    <t>Are you a highly motivated, creative and hardworking individual with a passion for people?
+    <t xml:space="preserve">Are you a highly motivated, creative and hardworking individual with a passion for people?
 Are you looking for an exciting new opportunity to be part of making history?
 If you answered yes then this is for you… IKEA is coming to Chile, Colombia and Peru and you can be part of our growing family!
 ﻿What we’re looking for 
@@ -1105,22 +1087,21 @@
 NOTE: We will just considerate the CV that are in English Version.</t>
   </si>
   <si>
-    <t>En adidas tú puedes ser nuestra fuente de inspiración. Los que cambien el juego, los que hacen la diferencia, los transformadores del mañana.
-Necesitamos Creators que empujen continuamente los límites, quienes reinventen para que construyamos nuestro futuro. ¡Te necesitamos a ti!
-La práctica tendrá una duración de 6 meses, para que realmente puedas ser parte de nuestros equipos y demostrar que #ImpossibleIsNothing.
-ÁREAS DE PRÁCTICA
-Comercial
-Maketing
-Operaciones
-Ventas
-RRHH
-Business Development
-No sólo te aseguramos trabajar en un tremendo equipo, sino que nos ocuparemos de tu desarrollo al 100%. ¡Tú puedes marcar la diferencia, ven a ser parte de la próxima generación de creadores!
-El comienzo de los periodos de práctica será a partir de Julio 2021.
-REQUISITOS
-Seguro escolar
-Disponibilidad Full Time
-Práctica de 6 meses</t>
+    <t>Qualifications
+Current student focused on business administration, HR or related field
+Administrative experience in a corporate or professional services environment is preferred
+Solid knowledge of Excel
+Very good English language skills
+Solid knowledge of Windows and Notes applications
+Collaborative style and the willingness to help others
+What You'll Do
+You will focus on supporting Professional Development (PD), recruiting and learning activities, working with teams and management across practices.
+You will be in close contact with our local PD Specialist to administer the planning, organizing, and execution of office-based and off-site training programs and events.
+You will assist with data analysis and reporting needs, support the professional development-related processes and activities, and perform a range of administrative tasks, including scheduling, clerical support, and database management.
+Additionally, you'll support planning and participation in firm learning programs and develop and manage participant pipelines. You'll also coordinate new hire training requirements.
+Who You'll Work With
+You will work in Santiago (Chile) as part of our Professional Development team. The daily hours and length of the internship contract will be determined according to local legal requirements.
+Our Professional Development team in LatAm has grown rapidly over the past 5 years and now has over 250 colleagues across 32 different performance cells including industry and functional practices, a large geographic research team, advance and geospatial analytics. Growth has also occurred in terms of breadth of services offered, and also level of complexity and sophistication of capabilities.</t>
   </si>
   <si>
     <t>P&amp;G was founded over 180 years ago as a simple soap and candle company. Today, we’re the world’s largest consumer goods company and home to iconic, trusted brands that make life a little bit easier in small but meaningful ways. We’ve spanned three centuries thanks to three simple ideas: leadership, innovation and citizenship.
@@ -1150,21 +1131,70 @@
 Availability of at least 6 months</t>
   </si>
   <si>
-    <t>Qualifications
-Current student focused on business administration, HR or related field
-Administrative experience in a corporate or professional services environment is preferred
-Solid knowledge of Excel
-Very good English language skills
-Solid knowledge of Windows and Notes applications
-Collaborative style and the willingness to help others
-What You'll Do
-You will focus on supporting Professional Development (PD), recruiting and learning activities, working with teams and management across practices.
-You will be in close contact with our local PD Specialist to administer the planning, organizing, and execution of office-based and off-site training programs and events.
-You will assist with data analysis and reporting needs, support the professional development-related processes and activities, and perform a range of administrative tasks, including scheduling, clerical support, and database management.
-Additionally, you'll support planning and participation in firm learning programs and develop and manage participant pipelines. You'll also coordinate new hire training requirements.
-Who You'll Work With
-You will work in Santiago (Chile) as part of our Professional Development team. The daily hours and length of the internship contract will be determined according to local legal requirements.
-Our Professional Development team in LatAm has grown rapidly over the past 5 years and now has over 250 colleagues across 32 different performance cells including industry and functional practices, a large geographic research team, advance and geospatial analytics. Growth has also occurred in terms of breadth of services offered, and also level of complexity and sophistication of capabilities.</t>
+    <t>En adidas tú puedes ser nuestra fuente de inspiración. Los que cambien el juego, los que hacen la diferencia, los transformadores del mañana.
+Necesitamos Creators que empujen continuamente los límites, quienes reinventen para que construyamos nuestro futuro. ¡Te necesitamos a ti!
+La práctica tendrá una duración de 6 meses, para que realmente puedas ser parte de nuestros equipos y demostrar que #ImpossibleIsNothing.
+ÁREAS DE PRÁCTICA
+Comercial
+Maketing
+Operaciones
+Ventas
+RRHH
+Business Development
+No sólo te aseguramos trabajar en un tremendo equipo, sino que nos ocuparemos de tu desarrollo al 100%. ¡Tú puedes marcar la diferencia, ven a ser parte de la próxima generación de creadores!
+El comienzo de los periodos de práctica será a partir de Julio 2021.
+REQUISITOS
+Seguro escolar
+Disponibilidad Full Time
+Práctica de 6 meses</t>
+  </si>
+  <si>
+    <t>Summer Intern or Full-time Junior Analyst
+We are looking for a Summer Intern or Full-time Junior Analyst to join our Crypto Mining Solutions Team as a regional specialist. The ideal candidate should have extensive knowledge in Central/South American culture, the ability to conduct independent research to compile reports with unique insights and be an independent self starter who is not afraid to jump right in. To succeed in this role, candidates will require well-rounded knowledge in finance, economics, technology, crypto mining, and extensive communication/business development skills.
+About Ankr
+Ankr provides Web3 infrastructure for easy, accessible and affordable deployment of blockchain nodes, API’s, decentralized staking infrastructure and Layer 2 scaling solutions, designed to lower the entry barrier for everyday people, enterprises, and developers to contribute to blockchain ecosystems. Check us out at https //www.ankr.com/
+Ankr was founded in 2017 in Berkeley, California. Its founding team and headquarters are based in San Francisco. Ankr’s distributed team of 50+ people operates from offices in San Francisco, Shanghai, Moscow, and Amsterdam.
+What will you do
+Conduct research for crypto mining industry, including but not limited to Regulation, Government Policy, Mining Economics and etc.
+Develop and maintain relationships with regional partners
+Perform data analysis, visualization, financial modeling depending on the research topic
+Compile reports and articles for both internal consumption and external publication
+Requirements
+Native in both Spanish and English, with extensive knowledge of Argentina or El Salvador
+Bachelor’s degree or sophomore/junior/senior year in any discipline
+Strong interest in crypto mining, willingness to learn, and ability to adapt to fast evolving environment
+Exceptional critical thinking skills and analytical mind
+Benefits
+Competitive compensation with above rate base salary with contribution based bonuses.
+The opportunity to work in a very dynamic environment and be part of diverse international team.
+Huge opportunities and responsibilities from Day 1.
+Be the owner of your own learning curve; the possibilities are limitless and depend on you.
+You will be able to learn and apply a broad range of skills to your work, and apply state-of-the-art data techniques to conduct research into a broad range of cutting-edge topics.</t>
+  </si>
+  <si>
+    <t>Somos la compañía líder de delivery en América Latina. Nuestra plataforma conecta a más de 77.000 restaurantes, supermercados, farmacias y tiendas de la región con millones de usuarios. Actualmente operamos en más de 400 ciudades ubicadas en Argentina, Bolivia, Chile, Paraguay, República Dominicana, Venezuela, Panamá y Uruguay. Contamos con un equipo de trabajo de más de 3200 personas. Nuestra app está disponible para sistemas operativos iOS y Android ¡y ya cuenta con más de 20 millones de descargas!
+Para seguir creciendo buscamos personas talentosas que se sumen, generen impacto en el negocio y sigan haciéndolo crecer. ¡Súmate a nuestro equipo!
+Buscamos a nuestro próximo practicante Intern Commercial para nuestro equipo Concepts.
+¿Que esperamos de ti?
+Análisis de indicadores claves de nuestros partner.
+Revisar perfiles correctamente cargados.
+Monitorear tiempos de conexión del partner y levantar información relevante.
+Apoyo en proceso de onboarding de partners.
+Ayudar con la reportería del área.
+Colaborar con las presentaciones comerciales del equipo.
+¿Qué buscamos?
+Formación técnico o profesional: Adm. De empresas, Ing. Comercial, relacionador público o carreras afines.
+Disponibilidad: Inmediata y jornada full time con flexibilidad.
+Ganas y motivación por el trabajo en equipo.
+Manejo de Office (Excel básico – medio)
+Disposición y flexibilidad para entrar a un equipo dinámico.
+Seguro estudiantil: Actualizado (excluyente)
+Duración: 3 meses con posibilidad de extensión. (6 meses deseables).
+Te proponemos:
+Entrar a una compañía pujante, enérgica, que busca constantemente dejar su huella. Todo lo que hacemos tiene un impacto inmediato no sólo en tu día a día, sino también en el de quienes conoces: tus amigos, tu familia, tu vecino.
+Unirte a un grupo de personas inquietas, curiosas y entusiastas. que buscan potenciar el talento constantemente.
+Claros, directos, sinceros, ingeniosos, abiertos, atentos, cercanos, divertidos, auténticos, cotidianos, coloquiales. Así somos y así trabajamos. Nuestra cultura se ve reflejada en cada uno de nuestros actos. Nos motiva a exigirnos y ser protagonistas en todo momento.
+#LoHacemosYa #VamosAlDetalle #PisamosFuerte #JugamosEnEquipo #GeneramosImpacto.</t>
   </si>
   <si>
     <t>En Macflooring, estamos buscando un Practicante para que se desempeñe como Community Manager, que pueda mejorar nuestra marca y construir fuertes comunidades en línea a través de nuestras diversas plataformas de medios sociales. El Community Manager será responsable de desarrollar y administrar el contenido de los medios de comunicación social que está diseñado para atraer a los usuarios y crear una relación interactiva entre los consumidores y la empresa.
@@ -1234,54 +1264,6 @@
 Siempre buscamos nuevas oportunidades de operación, lo que nos ha llevado a estar presentes en 16 países de Latinoamérica y en Estados Unidos.
 Actualmente nos componemos de más de 80 personas, diversas y comprometidas en construir juntos el mejor lugar para trabajar. Sabemos que no es fácil y que puede sonar idealista, pero nacimos de 3 emprendedores exitosos y en nuestro ADN va la pasión por desafiar lo establecido y alcanzar el éxito.
 ¿Qué te parece la propuesta? No dudes en postular a esta vacante. ¡Te estamos esperando!</t>
-  </si>
-  <si>
-    <t>Summer Intern or Full-time Junior Analyst
-We are looking for a Summer Intern or Full-time Junior Analyst to join our Crypto Mining Solutions Team as a regional specialist. The ideal candidate should have extensive knowledge in Central/South American culture, the ability to conduct independent research to compile reports with unique insights and be an independent self starter who is not afraid to jump right in. To succeed in this role, candidates will require well-rounded knowledge in finance, economics, technology, crypto mining, and extensive communication/business development skills.
-About Ankr
-Ankr provides Web3 infrastructure for easy, accessible and affordable deployment of blockchain nodes, API’s, decentralized staking infrastructure and Layer 2 scaling solutions, designed to lower the entry barrier for everyday people, enterprises, and developers to contribute to blockchain ecosystems. Check us out at https //www.ankr.com/
-Ankr was founded in 2017 in Berkeley, California. Its founding team and headquarters are based in San Francisco. Ankr’s distributed team of 50+ people operates from offices in San Francisco, Shanghai, Moscow, and Amsterdam.
-What will you do
-Conduct research for crypto mining industry, including but not limited to Regulation, Government Policy, Mining Economics and etc.
-Develop and maintain relationships with regional partners
-Perform data analysis, visualization, financial modeling depending on the research topic
-Compile reports and articles for both internal consumption and external publication
-Requirements
-Native in both Spanish and English, with extensive knowledge of Argentina or El Salvador
-Bachelor’s degree or sophomore/junior/senior year in any discipline
-Strong interest in crypto mining, willingness to learn, and ability to adapt to fast evolving environment
-Exceptional critical thinking skills and analytical mind
-Benefits
-Competitive compensation with above rate base salary with contribution based bonuses.
-The opportunity to work in a very dynamic environment and be part of diverse international team.
-Huge opportunities and responsibilities from Day 1.
-Be the owner of your own learning curve; the possibilities are limitless and depend on you.
-You will be able to learn and apply a broad range of skills to your work, and apply state-of-the-art data techniques to conduct research into a broad range of cutting-edge topics.</t>
-  </si>
-  <si>
-    <t>Somos la compañía líder de delivery en América Latina. Nuestra plataforma conecta a más de 77.000 restaurantes, supermercados, farmacias y tiendas de la región con millones de usuarios. Actualmente operamos en más de 400 ciudades ubicadas en Argentina, Bolivia, Chile, Paraguay, República Dominicana, Venezuela, Panamá y Uruguay. Contamos con un equipo de trabajo de más de 3200 personas. Nuestra app está disponible para sistemas operativos iOS y Android ¡y ya cuenta con más de 20 millones de descargas!
-Para seguir creciendo buscamos personas talentosas que se sumen, generen impacto en el negocio y sigan haciéndolo crecer. ¡Súmate a nuestro equipo!
-Buscamos a nuestro próximo practicante Intern Commercial para nuestro equipo Concepts.
-¿Que esperamos de ti?
-Análisis de indicadores claves de nuestros partner.
-Revisar perfiles correctamente cargados.
-Monitorear tiempos de conexión del partner y levantar información relevante.
-Apoyo en proceso de onboarding de partners.
-Ayudar con la reportería del área.
-Colaborar con las presentaciones comerciales del equipo.
-¿Qué buscamos?
-Formación técnico o profesional: Adm. De empresas, Ing. Comercial, relacionador público o carreras afines.
-Disponibilidad: Inmediata y jornada full time con flexibilidad.
-Ganas y motivación por el trabajo en equipo.
-Manejo de Office (Excel básico – medio)
-Disposición y flexibilidad para entrar a un equipo dinámico.
-Seguro estudiantil: Actualizado (excluyente)
-Duración: 3 meses con posibilidad de extensión. (6 meses deseables).
-Te proponemos:
-Entrar a una compañía pujante, enérgica, que busca constantemente dejar su huella. Todo lo que hacemos tiene un impacto inmediato no sólo en tu día a día, sino también en el de quienes conoces: tus amigos, tu familia, tu vecino.
-Unirte a un grupo de personas inquietas, curiosas y entusiastas. que buscan potenciar el talento constantemente.
-Claros, directos, sinceros, ingeniosos, abiertos, atentos, cercanos, divertidos, auténticos, cotidianos, coloquiales. Así somos y así trabajamos. Nuestra cultura se ve reflejada en cada uno de nuestros actos. Nos motiva a exigirnos y ser protagonistas en todo momento.
-#LoHacemosYa #VamosAlDetalle #PisamosFuerte #JugamosEnEquipo #GeneramosImpacto.</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibilities
@@ -1375,24 +1357,6 @@
 </t>
   </si>
   <si>
-    <t>We're looking for support, not in the moral sense, but in the Shopper Marketing Team sense. That's because we're on the hunt for our next CRM Shopper Intern to help us strengthen our Shopper communication process. This person will help contribute to growth, quality, and engagement for Shoppers. Does that sound like you?
-Responsibilities
-Use high level test analysis to understand how shopper CRM is working, compare different flows and find improvements.
-Use Python and SQL coding for results automation.
-Analyze current situation through data and quality features to help implement SRM strategy.
-Analyze main KPI in different situations of the Shopper life cycle to identify opportunities for the SRM.
-Support the SRM strategy in each step of the onboarding and Shopper lifecycle.
-Report main lessons learnt.
-Use critical thinking to create or improve marketing communications.
-Manage different stakeholders of marketing ops and analytics team to support the implementation of the SRM in all the geos.
-Qualifications
-Last year undergraduate student from a career related to the position.
-Strong critical thinking and analytical skills: ability to analyze and interpret large data sets to bring insights to life
-Solid communication and presentation skills
-Fluent in written and spoken Spanish and English
-Strong knowledge in SQL (Python or R is a plus)</t>
-  </si>
-  <si>
     <t>Job Summary
 The Red Hat Sales team is looking for a Solutions Architect Intern to join us in Santiago, Chile. In this role, you will train and prepare for a solutions architect role and help the sales team achieve their sales targets. You'll be responsible for the delivery of technical solutions to our customers, based on the requests of our customers, partners, internal customers like sales representatives, and other solutions architects. As a Solutions Architect Intern, you will work together with the solutions architects to gain more technical expertise and experience, while providing an excellent customer and partner experience.
 Primary Job Responsibilities
@@ -1418,6 +1382,32 @@
 Red Hat is the world’s leading provider of enterprise open source software solutions, using a community-powered approach to deliver reliable and high-performing Linux, hybrid cloud, container, and Kubernetes technologies. Red Hat helps customers integrate new and existing IT applications, develop cloud-native applications, standardize on our industry-leading operating system, and automate, secure, and manage complex environments. Award-winning support, training, and consulting services make Red Hat a trusted adviser to the Fortune 500. As a strategic partner to cloud providers, system integrators, application vendors, customers, and open source communities, Red Hat can help organizations prepare for the digital future.
 Red Hat is proud to be an equal opportunity workplace and an affirmative action employer. We review applications for employment without regard to their race, color, religion, sex, sexual orientation, gender identity, national origin, ancestry, citizenship, age, uniformed services, genetic information, physical or mental disability, medical condition, marital status, or any other basis prohibited by law.
 Red Hat does not seek or accept unsolicited resumes or CVs from recruitment agencies. We are not responsible for, and will not pay, any fees, commissions, or any other payment related to unsolicited resumes or CVs except as required in a written contract between Red Hat and the recruitment agency or party requesting payment of a fee.</t>
+  </si>
+  <si>
+    <t>We are building the future of Global Compliance Software. We want you to build your future with us!
+Rising Stars Internship
+If you are excited to hone your skills by supporting business priorities, grow as professional and have fun while doing it; our Rising Stars Internship program is for you!
+Each year Sovos welcomes Rising Stars to our offices in Chile for an internship experience. Rising Stars are immersed into Sovos culture right away by participating in our Whole Living Program, day to day department activities, and weekly professional development sessions.
+Our Rising Stars program is designed to challenge you to further develop your business acumen, see what it’s like to work in a B2B software company, and find out why Sovos is a Great Place to Work!
+What To Expect
+Gain valuable real-world experience and make a significant and lasting impact on our business
+Learn more about Sovos’ products and experience working alongside Sovosians and immerse yourself into our company culture
+Participate in weekly professional development sessions led by the Sovos Leadership team and HR team
+You Will Work On
+Using modern development tools to create industry-leading web applications while working in an Agile development environment
+Gaining experience using tools-of-the-trade; Jira, Zephyr, CLI (command line interface), Webservices, APIs, different approach in using Operating systems such as Linux and Windows among others.
+Implementing business requirements into our solutions and partner with other developers on projects
+What We Need From You
+Currently attending a College or University majoring in Computer Science, MIS, Computer Engineering or a related technical fields
+Personal drive to make things happen
+Ability to bring creativity &amp; innovation to their work
+Have strong analytical thinking and problem-solving skills
+Collaborate well with diverse groups of people &amp; passion to help others
+Advance English
+Key Takeaways
+No matter what your title is; at Sovos your voice and opinions can influence major decisions
+The Sovos culture is a community where you can be your “true self” and are encouraged to seek growth opportunities
+Sovos’ open door policy is invaluable to personal and professional growth</t>
   </si>
   <si>
     <t>Org. Setting and Reporting
@@ -1470,33 +1460,22 @@
 THE UNITED NATIONS DOES NOT CHARGE A FEE AT ANY STAGE OF THE RECRUITMENT PROCESS (APPLICATION, INTERVIEW MEETING, PROCESSING, OR TRAINING). THE UNITED NATIONS DOES NOT CONCERN ITSELF WITH INFORMATION ON APPLICANTS’ BANK ACCOUNTS.</t>
   </si>
   <si>
-    <t>We are building the future of Global Compliance Software. We want you to build your future with us!
-Rising Stars Internship
-If you are excited to hone your skills by supporting business priorities, grow as professional and have fun while doing it; our Rising Stars Internship program is for you!
-Each year Sovos welcomes Rising Stars to our offices in Chile for an internship experience. Rising Stars are immersed into Sovos culture right away by participating in our Whole Living Program, day to day department activities, and weekly professional development sessions.
-Our Rising Stars program is designed to challenge you to further develop your business acumen, see what it’s like to work in a B2B software company, and find out why Sovos is a Great Place to Work!
-What To Expect
-Gain valuable real-world experience and make a significant and lasting impact on our business
-Learn more about Sovos’ products and experience working alongside Sovosians and immerse yourself into our company culture
-Participate in weekly professional development sessions led by the Sovos Leadership team and HR team
-You Will Work On
-Using modern development tools to create industry-leading web applications while working in an Agile development environment
-Gaining experience using tools-of-the-trade; Jira, Zephyr, CLI (command line interface), Webservices, APIs, different approach in using Operating systems such as Linux and Windows among others.
-Implementing business requirements into our solutions and partner with other developers on projects
-What We Need From You
-Currently attending a College or University majoring in Computer Science, MIS, Computer Engineering or a related technical fields
-Personal drive to make things happen
-Ability to bring creativity &amp; innovation to their work
-Have strong analytical thinking and problem-solving skills
-Collaborate well with diverse groups of people &amp; passion to help others
-Advance English
-Key Takeaways
-No matter what your title is; at Sovos your voice and opinions can influence major decisions
-The Sovos culture is a community where you can be your “true self” and are encouraged to seek growth opportunities
-Sovos’ open door policy is invaluable to personal and professional growth</t>
-  </si>
-  <si>
-    <t>Alumnos de Ingeniería Comercial, Ingeniería Civil Industrial o Ingeniería Informática interesados en área de Marketing que busquen práctica profesional 🔍 en Haip te estamos buscando! Conoce el Marketing de Influenciadores y su desarrollo en RRSS 📲</t>
+    <t>We're looking for support, not in the moral sense, but in the Shopper Marketing Team sense. That's because we're on the hunt for our next CRM Shopper Intern to help us strengthen our Shopper communication process. This person will help contribute to growth, quality, and engagement for Shoppers. Does that sound like you?
+Responsibilities
+Use high level test analysis to understand how shopper CRM is working, compare different flows and find improvements.
+Use Python and SQL coding for results automation.
+Analyze current situation through data and quality features to help implement SRM strategy.
+Analyze main KPI in different situations of the Shopper life cycle to identify opportunities for the SRM.
+Support the SRM strategy in each step of the onboarding and Shopper lifecycle.
+Report main lessons learnt.
+Use critical thinking to create or improve marketing communications.
+Manage different stakeholders of marketing ops and analytics team to support the implementation of the SRM in all the geos.
+Qualifications
+Last year undergraduate student from a career related to the position.
+Strong critical thinking and analytical skills: ability to analyze and interpret large data sets to bring insights to life
+Solid communication and presentation skills
+Fluent in written and spoken Spanish and English
+Strong knowledge in SQL (Python or R is a plus)</t>
   </si>
   <si>
     <t>For over 80 years, GfK has been a reliable and trusted insight partner for the world’s biggest companies and leading brands who make a difference in every consumer’s life - and we will continue to build on this. We connect data, science and innovative digital research solutions to provide answers for key business questions around consumers, markets, brands and media. With our headquarters in Germany and a presence in around 60 countries worldwide, you benefit from our global company with a diverse community of ~9,000 employees.
@@ -1615,6 +1594,9 @@
 7r1ygu</t>
   </si>
   <si>
+    <t>Alumnos de Ingeniería Comercial, Ingeniería Civil Industrial o Ingeniería Informática interesados en área de Marketing que busquen práctica profesional 🔍 en Haip te estamos buscando! Conoce el Marketing de Influenciadores y su desarrollo en RRSS 📲</t>
+  </si>
+  <si>
     <t>Intern (Technical-Engineering)
 We're looking for an Intern to join the team.
 Does this sound like a good role for you?
@@ -1732,16 +1714,6 @@
 </t>
   </si>
   <si>
-    <t>Puig en Chile lanza la 2da edición de su programa de pasantías, que te permitirá en el transcurso de 1 año, tener una experiencia en distintas áreas de nuestra compañía, donde contarás con un mentor que te acompañará y guiará en diferentes desafíos y proyectos.
-Si cuentas con un nivel de inglés avanzado y eres curioso/a, creativo/a, apasionado/a y te gusta trabajar en equipo, ésta es tu oportunidad!
-Para participar debes de estar cursando o terminando alguna de las siguientes carreras o afines: Ingeniería Comercial, Ingeniería Civil Industrial, Comunicación y Publicidad.
-SOBRE PUIG -
-Puig es una empresa familiar de moda y con sede en Barcelona, dirigida en la actualidad por la tercera generación de la familia. Puig crea marcas y experiencias olfativas únicas que hacen soñar. Entre sus historias de éxito figuran varias marcas propias como Carolina Herrera, Nina Ricci, Paco Rabanne, Jean Paul Gaultier, Penhaligon’s y L’Artisan Parfumeur; licencias como Christian Louboutin, Comme des Garçons; y fragancias Lifestyle. Sus productos se venden en más de 150 países.
-Vive la experiencia Puig y tendrás la oportunidad de crear, crecer y dejar huella.
-¡Únete a nosotros!
-Puig 2021. This information is privileged, confidential and contains private information. Any reading, retention, distribution or copying of this communication by any person other tan its intended recipient is prohibited.</t>
-  </si>
-  <si>
     <t>P&amp;G was founded over 180 years ago as a simple soap and candle company. Today, we’re the world’s largest consumer goods company and home to iconic, trusted brands that make life a little bit easier in small but meaningful ways. We’ve spanned three centuries thanks to three simple ideas: leadership, innovation and citizenship.
 The insight, innovation and passion of hardworking teams has helped us grow into a global company that is governed responsibly and ethically, that is open and transparent, and that supports good causes and protects the environment.
 This is a place where you can be proud to work and do something that matters.
@@ -1769,6 +1741,28 @@
 Availability of at least 6 months</t>
   </si>
   <si>
+    <t xml:space="preserve">Requisitos
+Torre Labs is looking for a Product intern for a startup backed by early Facebook and Twitter investors
+Skills And Experience Needed
+Must have potential to develop - UX research, Interviewing, Psychology, Entrepreneurship, Attention to detail, Writing, Analysis of data, Strategic Thinking
+Language(s) needed: English - Fully fluent, Spanish - Conversational
+Location: Remote GMT-08:00 to GMT-02:00
+Compesation: USD$1K /month
+Actividades a Realizar
+You'll be an important part of the product design team. You'll learn about and be responsible for:
+Ideation / research
+Customer interviews
+Data analysis
+Documenting product requirements and processes
+Execution of product strategies
+Usability testing for new and existing functionalities
+Value testing for new and existing functionalities
+Exploratory testing
+Analysis of user sessions
+Manual regression testing
+</t>
+  </si>
+  <si>
     <t>Huawei Technologies is looking for last semester students to join the Chile Internship Program as Human Resources Trainee.
 *Advanced English Required: speaking, writing, reading*
 Skill and Knowledge
@@ -1785,32 +1779,6 @@
 *We offer you a competitive economic retribution
 *If you are interested please apply via LinkedIN or share us your CV in English to marianag.izquierdo@huawei.com
 NOTE: We will just considerate the CV that are in English Version.</t>
-  </si>
-  <si>
-    <t>About Us
-The Kraft Heinz Company is one of the largest food and beverage companies in the world, with eight $1 billion+ brands and global sales of approximately $25 billion. We’re a globally trusted producer of high-quality, great-tasting, and nutritious foods for over 150 years. Our brands are truly global, with products produced and marketed in over 40 countries. These beloved products include condiments and sauces, cheese and dairy, meals, meats, refreshment beverages, coffee, infant and nutrition products, and numerous other grocery products in a portfolio of more than 200 legacy and emerging brands.
-No matter the brand, we’re united under one vision To sustainably grow by delighting more consumers globally. Bringing this vision to life is our team of 39,000+ food lovers, creative thinkers, and high performers worldwide. Together, we help provide meals to those in need through our global partnership with Rise Against Hunger. We also stand committed to responsible, sustainable practices that extend to every facet of our business, our consumers, and our communities. Every day, we’re transforming the food industry with bold thinking and unprecedented results. If you share our passion – and are ready to create the future, build a legacy, and lead as a global citizen – there’s only one thing to do join our table and let’s make life delicious!
-Our Culture of Ownership, Meritocracy and Collaboration
-We're not afraid to think differently. Embrace new ideas. Dream big. We empower our people at every level – from entry-level intern to senior leader – to own their work. We share a responsibility to think like Owners – to be mindful of the collective and sustained success of Kraft Heinz – which we apply to every situation, every day.
-As part of Kraft Heinz, you're supported to grow and achieve. You’re expected to bring your authentic self to work every day, to lead with humility, and drive outstanding performance at every level – and you’ll be rewarded. You’re given opportunities to leave a mark and build a legacy. But you won’t do it alone. You’re supported by passionate teammates along the way, and our collective, collaborative spirit fuels our incredible progress.
-Description &amp; Requirements
-Manage the customer supply chain through sales forecasting and replenishment plans to have better visibility of anticipated demand and meet future demand. This position is n charge of the commercial management of key performance indicators like days on hand; CFR- lead times- sell out- and coverage.
-Main Responsibilities
-Analyze and control the sales results in each specific points of sale- identifying opportunities and gaps in the process to optimize the process.
-In charge of the inventory management and sell-out monitoring to identify sales trends and therefore create the monthly forecast .
-Weekly communication with client to optimize the replenishment process and meet in-stock- inventory and sales objectives while maintaining fill rates.
-Meet with the Planning Team to check the items with risk- solution dates- and maintain the communication with the client to carry out joint action plans and
-do not impact other indicators.
-Monitor the coverage of the mix of each clients and each SKU.
-Communicate with factories to monitor orders and dispatch them on time.
-Requirements
-Graduated in commercial engineering- industrial engineering- business administration or related.
-At least 1 year of experience in analysis- finance- forecasting- supply chain and/or sales planning.
-Experience in teamwork and working under pressure.
-Ability to communicate- work independently- and organization.
-Knowledge of Microsoft Office Programs (Advance Excel)
-Advance English - take into consideration part of your first interview will be held in english
-Temporary position turning into a full-time job</t>
   </si>
   <si>
     <t>Qualifications
@@ -1883,6 +1851,32 @@
 Job openings advertised on the Careers Portal will be removed at 11:59 p.m. (New York time) on the deadline date.
 No Fee
 THE UNITED NATIONS DOES NOT CHARGE A FEE AT ANY STAGE OF THE RECRUITMENT PROCESS (APPLICATION, INTERVIEW MEETING, PROCESSING, OR TRAINING). THE UNITED NATIONS DOES NOT CONCERN ITSELF WITH INFORMATION ON APPLICANTS’ BANK ACCOUNTS.</t>
+  </si>
+  <si>
+    <t>About Us
+The Kraft Heinz Company is one of the largest food and beverage companies in the world, with eight $1 billion+ brands and global sales of approximately $25 billion. We’re a globally trusted producer of high-quality, great-tasting, and nutritious foods for over 150 years. Our brands are truly global, with products produced and marketed in over 40 countries. These beloved products include condiments and sauces, cheese and dairy, meals, meats, refreshment beverages, coffee, infant and nutrition products, and numerous other grocery products in a portfolio of more than 200 legacy and emerging brands.
+No matter the brand, we’re united under one vision To sustainably grow by delighting more consumers globally. Bringing this vision to life is our team of 39,000+ food lovers, creative thinkers, and high performers worldwide. Together, we help provide meals to those in need through our global partnership with Rise Against Hunger. We also stand committed to responsible, sustainable practices that extend to every facet of our business, our consumers, and our communities. Every day, we’re transforming the food industry with bold thinking and unprecedented results. If you share our passion – and are ready to create the future, build a legacy, and lead as a global citizen – there’s only one thing to do join our table and let’s make life delicious!
+Our Culture of Ownership, Meritocracy and Collaboration
+We're not afraid to think differently. Embrace new ideas. Dream big. We empower our people at every level – from entry-level intern to senior leader – to own their work. We share a responsibility to think like Owners – to be mindful of the collective and sustained success of Kraft Heinz – which we apply to every situation, every day.
+As part of Kraft Heinz, you're supported to grow and achieve. You’re expected to bring your authentic self to work every day, to lead with humility, and drive outstanding performance at every level – and you’ll be rewarded. You’re given opportunities to leave a mark and build a legacy. But you won’t do it alone. You’re supported by passionate teammates along the way, and our collective, collaborative spirit fuels our incredible progress.
+Description &amp; Requirements
+Manage the customer supply chain through sales forecasting and replenishment plans to have better visibility of anticipated demand and meet future demand. This position is n charge of the commercial management of key performance indicators like days on hand; CFR- lead times- sell out- and coverage.
+Main Responsibilities
+Analyze and control the sales results in each specific points of sale- identifying opportunities and gaps in the process to optimize the process.
+In charge of the inventory management and sell-out monitoring to identify sales trends and therefore create the monthly forecast .
+Weekly communication with client to optimize the replenishment process and meet in-stock- inventory and sales objectives while maintaining fill rates.
+Meet with the Planning Team to check the items with risk- solution dates- and maintain the communication with the client to carry out joint action plans and
+do not impact other indicators.
+Monitor the coverage of the mix of each clients and each SKU.
+Communicate with factories to monitor orders and dispatch them on time.
+Requirements
+Graduated in commercial engineering- industrial engineering- business administration or related.
+At least 1 year of experience in analysis- finance- forecasting- supply chain and/or sales planning.
+Experience in teamwork and working under pressure.
+Ability to communicate- work independently- and organization.
+Knowledge of Microsoft Office Programs (Advance Excel)
+Advance English - take into consideration part of your first interview will be held in english
+Temporary position turning into a full-time job</t>
   </si>
   <si>
     <t>Great analytical skills can come with great responsibility (in our Marketing team) because we are looking for a new Marketing Analytics Intern to come work with us, could that be you? 👀
@@ -2134,28 +2128,6 @@
 R-58304</t>
   </si>
   <si>
-    <t xml:space="preserve">Requisitos
-Torre Labs is looking for a Product intern for a startup backed by early Facebook and Twitter investors
-Skills And Experience Needed
-Must have potential to develop - UX research, Interviewing, Psychology, Entrepreneurship, Attention to detail, Writing, Analysis of data, Strategic Thinking
-Language(s) needed: English - Fully fluent, Spanish - Conversational
-Location: Remote GMT-08:00 to GMT-02:00
-Compesation: USD$1K /month
-Actividades a Realizar
-You'll be an important part of the product design team. You'll learn about and be responsible for:
-Ideation / research
-Customer interviews
-Data analysis
-Documenting product requirements and processes
-Execution of product strategies
-Usability testing for new and existing functionalities
-Value testing for new and existing functionalities
-Exploratory testing
-Analysis of user sessions
-Manual regression testing
-</t>
-  </si>
-  <si>
     <t>AboutP&amp;G
 P&amp;G was founded over 180 years ago as a simple soap and candle company. Today, we’re the world’s largest consumer goods company and home to iconic, trusted brands that make life a little bit easier in small but meaningful ways. We’ve spanned three centuries thanks to three simple ideas: leadership, innovation and citizenship.
 The insight, innovation and passion of hardworking teams has helped us grow into a global company that is governed responsibly and ethically, that is open and transparent, and that supports good causes and protects the environment. This is a place where you can be proud to work and do something that matters.
@@ -2191,6 +2163,12 @@
 Santiago, Chile
 Job Id: R000006278
 Job categories: Engineering</t>
+  </si>
+  <si>
+    <t>Responsibilities
+Apprentice includes students working at hp who are enrolled in apprenticeship programs in association with their university. Typically used in countries where specialized apprenticeship programs exist. College Interns are university students who are working at hp during their study or in summer breaks between university semesters. College Intern is only used in selected countries where it is not the practice to differentiate based on academic year completed.
+Education And Experience Required
+Enrolled in University.</t>
   </si>
   <si>
     <t>Importante empresa multinacional del rubo de automatización e ingeniería eléctrica se encuentra en búsqueda de un Encargado de compras internas, con el fin de administrar, mantener y desarrollar relaciones a largo plazo con personas clave de las cuentas que tendrá a su cargo, en base a la confianza y cumplimiento de compromisos.
@@ -2349,8 +2327,14 @@
 </t>
   </si>
   <si>
-    <t>Estoy en búsqueda de practicante en el area de administración de empresa o carrera a fin por tres meses.
-Enfocado en el area de operaciones en uno de los mejores e-commerce y concept store de chile.</t>
+    <t>Puig en Chile lanza la 2da edición de su programa de pasantías, que te permitirá en el transcurso de 1 año, tener una experiencia en distintas áreas de nuestra compañía, donde contarás con un mentor que te acompañará y guiará en diferentes desafíos y proyectos.
+Si cuentas con un nivel de inglés avanzado y eres curioso/a, creativo/a, apasionado/a y te gusta trabajar en equipo, ésta es tu oportunidad!
+Para participar debes de estar cursando o terminando alguna de las siguientes carreras o afines: Ingeniería Comercial, Ingeniería Civil Industrial, Comunicación y Publicidad.
+SOBRE PUIG -
+Puig es una empresa familiar de moda y con sede en Barcelona, dirigida en la actualidad por la tercera generación de la familia. Puig crea marcas y experiencias olfativas únicas que hacen soñar. Entre sus historias de éxito figuran varias marcas propias como Carolina Herrera, Nina Ricci, Paco Rabanne, Jean Paul Gaultier, Penhaligon’s y L’Artisan Parfumeur; licencias como Christian Louboutin, Comme des Garçons; y fragancias Lifestyle. Sus productos se venden en más de 150 países.
+Vive la experiencia Puig y tendrás la oportunidad de crear, crecer y dejar huella.
+¡Únete a nosotros!
+Puig 2021. This information is privileged, confidential and contains private information. Any reading, retention, distribution or copying of this communication by any person other tan its intended recipient is prohibited.</t>
   </si>
   <si>
     <t>P&amp;G was founded over 180 years ago as a simple soap and candle company. Today, we’re the world’s largest consumer goods company and home to iconic, trusted brands that make life a little bit easier in small but meaningful ways. We’ve spanned three centuries thanks to three simple ideas: leadership, innovation and citizenship.
@@ -2428,6 +2412,32 @@
 We offer you the opportunity to work in a dynamic and entrepreneurial organisation, in a growing market in a fast paced industry. You will receive a very competitive total benefits package including an excellent base salary and bonus scheme.</t>
   </si>
   <si>
+    <t>Somos Red Salud CChC, la red de salud privada con mayor cobertura en el territorio nacional, ofreciendo prestaciones médicas y dentales a través de sus 9 Clínicas y más de 30 Centros Médicos y Clínicas Dentales, a lo largo del país, desde Arica a Punta Arenas. Brindamos una salud de calidad accesible, disponible en diferentes puntos del país y con calidez humana.
+En Clínicas RedSalud nos encontramos en búsqueda de Internos de Enfermería para desempeñarse en nuestras unidades.
+Para incorporarte a nuestra filiales debes cumplir los siguientes requisitos:
+Estar cursando 9 o 10mo semestre de la carrera.
+Poseer experiencia en internados.
+Contar con Disponibilidad Inmediata.
+Disponibilidad para trabajar en turnos (4to turno, 24x3, Lunes a Sábados Rotativo)
+Beneficio
+Alimentación
+¡Postula con nosotros!
+Requisitos Minimos
+Estar cursando 9 o 10mo semestre de la carrera.
+Poseer experiencia en internados.
+Contar con Disponibilidad Inmediata.
+Disponibilidad para trabajar en turnos (4to turno, 24x3, Lunes a Sábados Rotativo)
+Experiencia Mínima
+Desde 1 año
+Estudios Mínimos
+Universitaria
+Situación Académica
+Próximo a graduarse
+Carrera
+Habilidades:
+Enfermería</t>
+  </si>
+  <si>
     <t>Ofertas de Empleo
 Memoristas Ingeniería Civil 6 meses Pasantía
 Echeverría Izquierdo
@@ -2460,32 +2470,6 @@
 Tipos de discapacidad: WhatsApp LinkedIn Facebook Twitter WhatsApp LinkedIn Facebook Twitter ×</t>
   </si>
   <si>
-    <t>Somos Red Salud CChC, la red de salud privada con mayor cobertura en el territorio nacional, ofreciendo prestaciones médicas y dentales a través de sus 9 Clínicas y más de 30 Centros Médicos y Clínicas Dentales, a lo largo del país, desde Arica a Punta Arenas. Brindamos una salud de calidad accesible, disponible en diferentes puntos del país y con calidez humana.
-En Clínicas RedSalud nos encontramos en búsqueda de Internos de Enfermería para desempeñarse en nuestras unidades.
-Para incorporarte a nuestra filiales debes cumplir los siguientes requisitos:
-Estar cursando 9 o 10mo semestre de la carrera.
-Poseer experiencia en internados.
-Contar con Disponibilidad Inmediata.
-Disponibilidad para trabajar en turnos (4to turno, 24x3, Lunes a Sábados Rotativo)
-Beneficio
-Alimentación
-¡Postula con nosotros!
-Requisitos Minimos
-Estar cursando 9 o 10mo semestre de la carrera.
-Poseer experiencia en internados.
-Contar con Disponibilidad Inmediata.
-Disponibilidad para trabajar en turnos (4to turno, 24x3, Lunes a Sábados Rotativo)
-Experiencia Mínima
-Desde 1 año
-Estudios Mínimos
-Universitaria
-Situación Académica
-Próximo a graduarse
-Carrera
-Habilidades:
-Enfermería</t>
-  </si>
-  <si>
     <t>Descripción de la Empresa: Somos una empresa líder en el rubro de la construcción con más de 40 años de trayectoria. Estamos presente a lo largo de todo Chile, y también con presencia internacional, contando con más de 7.000 colaboradores.
 Estamos presentes en las obras más importantes del país, tanto en el ámbito público como privado, construyendo con foco en la innovación y con una constante preocupación en las personas. * Misión del cargo: Será el encargado de desarrollar su memoria o proyecto de título mientras en paralelo se desarrolla dentro del área de Plan. y Procesos * Descripción Funciones del Cargo: De parte del equipo de equipo de selección de Echeverria Izquierdo buscamos a Ingeniero Civil que quiera desarrollar su memoria o tesis con nosotros en la Gerencia de Planificación y Procesos Corporativos por un periodo de 6 meses con posibilidad de extender.Nuestro candidato ideal deberá desarrollar las siguientes funciones:- Ser capaz de identificar proceso críticos de las unidades de negoció e implementar oportunidades de mejoras.- Poder generar propuestas de calor en las operaciones de cada negocio- Llevar a cabo procesos del áreaDeseable:- Manejo de software- Gestión de proyectosPor nuestra parte te ofrecemos la parte de ser parte de un equipo de profesional donde podrás desarrollarte con autonomía, entregar tu opinión y desarrollar ideas. Además, contamos con tarjeta de alimentación. * Requisitos: -Alumnos de Ingeniería Civil que se encuentren en proceso de titulación.
 Ser capaz de identificar procesos críticos y optimizarlos
@@ -2502,6 +2486,10 @@
 Educación Mínima Formal Profesional universitario de las áreas comercial, industrial o afín. Entre 1 a 3 años de experiencia en cargos similares.
 Conocimientos Específico Manejo de herramientas computacionales MS Office (Excel, Word, Power Point). Conocimiento de SAP, Conocimientos financieros y contables.
 Importante empresa a nivel latinoamericano, se encuentra en la búsqueda de un Coordinador Cobranza Interna, para que se integre a su equipo de trabajo.</t>
+  </si>
+  <si>
+    <t>Estoy en búsqueda de practicante en el area de administración de empresa o carrera a fin por tres meses.
+Enfocado en el area de operaciones en uno de los mejores e-commerce y concept store de chile.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2522,12 +2510,6 @@
 Disponibilidad Full Time
 Práctica de 6 meses
 By submitting your interest in this job, you agree to receive text notifications with additional steps to complete your job application. You will receive up to 6 messages from the number "63879". Message &amp; data rates may apply. Please refer to our privacy policy for more information.</t>
-  </si>
-  <si>
-    <t>Responsibilities
-Apprentice includes students working at hp who are enrolled in apprenticeship programs in association with their university. Typically used in countries where specialized apprenticeship programs exist. College Interns are university students who are working at hp during their study or in summer breaks between university semesters. College Intern is only used in selected countries where it is not the practice to differentiate based on academic year completed.
-Education And Experience Required
-Enrolled in University.</t>
   </si>
   <si>
     <t>We're looking for support, not in the moral sense, but in the Shopper Marketing Team sense. That's because we're on the hunt for our next CRM Shopper Intern to help us strengthen our Shopper communication process. This person will help contribute to growth, quality, and engagement for Shoppers. Does that sound like you?
@@ -2586,6 +2568,20 @@
 Adaptability
 Be curious, innovative, fast-moving, and passionate about discovery
 As we are 100% remote we expect all Torrex to have fluent English.</t>
+  </si>
+  <si>
+    <t>ESO's Department of Communication is responsible for all aspects of internal and external communication for the Organisation. It covers the whole spectrum of communications, including media relations, content production, local outreach, digital communication and internal communication, and engages with a broad range of audiences ranging from scientists and the astronomy community, decision-takers to journalists and members of the public. The Department is based partly at the ESO Headquarters in Garching near Munich, Germany, and partly in Santiago, Chile. In ESO's Department of Communication in Chile you will work with a team of professional science communicators for the preparation of ESO news and press releases, social media campaigns, web pages, video scripts, and other public communication products .
+You Will Learn
+Through your involvement in various projects and with our support, you will have the opportunity to understand and learn specific communication skills and tools, the values of the scientific method, critical thinking, quality standards in communications, collaboration and team spirit, working with a diverse and international workforce. You would gain experience in how to communicate science to different audiences and thereby contribute to building a more informed and capable society through science communication.
+How a large international scientific organisation works in practice and in particular what are the workflows, processes and procedures within the Department of Communication in Chile; How to write about complex scientific issues in an engaging and understandable manner; What is required to coordinate big events and projects; How written text and audiovisuals can be combined to make science attractive and approachable to the public.
+Requirements
+We are looking for people who want to gain experience in science communication of frontline astronomy projects.
+You should have interest in communicating astronomy or other physical sciences to the public. Knowledge of astronomy that allows you to understand scientific papers is an asset. You must be fluent in English and Spanish both written and oral and have strong MS Office applications skills (Word, Excel, and PowerPoint). Candidates currently studying a University degree in science or communications careers are eligible.
+Competences
+You should be able to:
+Understand and translate scientific research into simple concepts and write about it to general audiences in an engaging and accurate manner; Provide clear, concise and timely written and oral communications; Work under time pressure and deliver to agreed deadlines and standards; Work both on your own initiative and as part of a team; Build good collaborative working relationships with people from different cultural backgrounds and disciplines. Proactive, open and friendly attitude and excellent interpersonal and communication skills. Creativity. Transparency, being a good team player.
+Internship Details
+The duration of the internship is 3 months, and considering the current situation the internship will be carried out remotely. We offer a monthly allowance to cover your living expenses. For any further questions please contact **********.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2650,20 +2646,6 @@
 ccClO4g-owT1v</t>
   </si>
   <si>
-    <t>ESO's Department of Communication is responsible for all aspects of internal and external communication for the Organisation. It covers the whole spectrum of communications, including media relations, content production, local outreach, digital communication and internal communication, and engages with a broad range of audiences ranging from scientists and the astronomy community, decision-takers to journalists and members of the public. The Department is based partly at the ESO Headquarters in Garching near Munich, Germany, and partly in Santiago, Chile. In ESO's Department of Communication in Chile you will work with a team of professional science communicators for the preparation of ESO news and press releases, social media campaigns, web pages, video scripts, and other public communication products .
-You Will Learn
-Through your involvement in various projects and with our support, you will have the opportunity to understand and learn specific communication skills and tools, the values of the scientific method, critical thinking, quality standards in communications, collaboration and team spirit, working with a diverse and international workforce. You would gain experience in how to communicate science to different audiences and thereby contribute to building a more informed and capable society through science communication.
-How a large international scientific organisation works in practice and in particular what are the workflows, processes and procedures within the Department of Communication in Chile; How to write about complex scientific issues in an engaging and understandable manner; What is required to coordinate big events and projects; How written text and audiovisuals can be combined to make science attractive and approachable to the public.
-Requirements
-We are looking for people who want to gain experience in science communication of frontline astronomy projects.
-You should have interest in communicating astronomy or other physical sciences to the public. Knowledge of astronomy that allows you to understand scientific papers is an asset. You must be fluent in English and Spanish both written and oral and have strong MS Office applications skills (Word, Excel, and PowerPoint). Candidates currently studying a University degree in science or communications careers are eligible.
-Competences
-You should be able to:
-Understand and translate scientific research into simple concepts and write about it to general audiences in an engaging and accurate manner; Provide clear, concise and timely written and oral communications; Work under time pressure and deliver to agreed deadlines and standards; Work both on your own initiative and as part of a team; Build good collaborative working relationships with people from different cultural backgrounds and disciplines. Proactive, open and friendly attitude and excellent interpersonal and communication skills. Creativity. Transparency, being a good team player.
-Internship Details
-The duration of the internship is 3 months, and considering the current situation the internship will be carried out remotely. We offer a monthly allowance to cover your living expenses. For any further questions please contact **********.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Job Description
 Support in the area of Business Management for Regional Controller and LATAM LEC controllers
 Support Project execution (Implementation of new projects to enhance controls and process in the region as well than participate in projects executed at global level).
@@ -2808,10 +2790,7 @@
 INGLES: (Lectura: Medio, Escritura: Medio, Hablado: Bajo)</t>
   </si>
   <si>
-    <t>Company Description
-Isabel Gonzalez
-Job Description
-Empresa ubicada en lampa requiere a una encargada de sistema de gestión.
+    <t>Empresa ubicada en lampa requiere a una encargada de sistema de gestión.
 Funciones
 Dirigir Sistema Integrado de Gestión de la planta.
 Realizar auditorías internas y ser quien recibe a auditores externos.
@@ -2822,7 +2801,33 @@
 Requisitos : experiencia en sistema integrados de gestión, procedimientos y auditorias.</t>
   </si>
   <si>
-    <t>Empresa ubicada en lampa requiere a una encargada de sistema de gestión.
+    <t>In a constantly changing world, we work together with our people, clients and communities to enable them to fulfill their potential to do great things. We believe that by bringing everyone together, we can solve problems using innovative technology that can create a world that is sustainable and secure. At NTT, we encourage you to remain continuously curious, as that is what keeps you fast, flexible and relevant. No two days will be the same but that is what will help you grow and realize your full potential. The power is in your hands to do great things. It’s time to lead the change, be the authentic you, to solve difficult challenges, to set the pace of change and to unleash your potential. Want to be a part of our team?The MS Engineer (L1) is responsible for providing a managed service to clients to ensure that their IT infrastructure and systems remain operational through proactively identifying, investigating and resolving technical incidents and problems and to restore service to clients by managing incidents to resolution. Their primary objective is to ensure zero missed service level agreement conditions. The MS Engineer (L1) focuses on first line support for standard and low complexity incidents and service requests. Radford reference: Provides technical support to field engineers, technicians, and product support personnel who are diagnosing, troubleshooting, repairing and debugging complex electro/mechanical equipment, computer systems, complex software, or networked and/or wireless systems. Responds to situations where first-line product support has failed to isolate or fix problems in malfunctioning equipment or software. Reports design, reliability and maintenance problems or bugs to design engineering/software engineering. May be involved in customer installation and training. Provides support to customer/users where the product is highly technical or sophisticated in nature. Survey Tip: In software companies this position generally interacts directly with the customer/user when the product is highly technical or sophisticated in nature, such as with systems level software where the user has a technical background. In a less sophisticated environment, as with many applications products where the user is nontechnical, this position would generally interact with product support personnel and potentially the customer when the customer’s problem cannot be resolved directly by first-level resources. Working at NTT Key Roles and Responsibilities: Monitors client infrastructure and solutions Identify problems and errors prior to or when they occur Routinely identify common incidents and opportunities for avoidance as well as general opportunities for incident reduction Investigate first line incidents assigned and identify the root cause of incidents and problems Fulfil approved requests following agreed procedures Provide telephonic or chat support to clients when required Execute approved maintenance activities including patching and configuration changes Follow the required handover procedures for shift changes to ensure service continuity Report and escalate incidents where necessary Ensure the efficient and comprehensive resolutions of incidents and requests Proactively identify opportunities for work optimisation Update existing knowledge articles or create new ones Identify opportunities for work optimisation including opportunities for automation of work, request fulfilment, incident resolution and other general process improvement opportunities. Knowledge, Skills and Attributes: Ability to communicate and work across different cultures and social groups Ability to plans activities and projects well in advance, and takes into account possible changing circumstances Ability to maintain a positive outlook at work Ability to work well in a pressurised environment Ability to work hard and put in longer hours when it is necessary Ability to apply active listening techniques such as paraphrasing the message to confirm understanding, probing for further relevant information and refraining from interrupting Ability to adapt to changing circumstances Ability to place client at the forefront of all interactions, understanding their requirements and creating a positive client experience throughout the total client journey Academic Qualifications Diploma, degree or relevant qualification in IT/Computing (or demonstrated equivalent work experience) Advantageous certifications: Up to date and relevant ITIL certification (Foundation Level) Cisco Certified Network Associate
+Routing and Switching (CCNA-R/S) Cisco Certified Network Associate
+Wireless (CCNA-WL) Riverbed Certified Solutions Associate
+WAN Optimization (RCSA-W) Cisco Certified Network Associate
+Security (CCNA-SEC) Check Point Certified Security Administrator (CCSA) Check Point Certified Security Administrator NG with Application Intelligence (CCSA-NG AI) VMware Certified Professional vSphere IP, WINS, DHCP, DNC, etc MS-Office, MS-Outlook, Symantec Backup Exec, Symantec EndPoint Protection, Symantec System Recovery, Citrix Go-To-Assist MS-Active Directory MS-Windows Server MS-Windows XP Professional MS-Windows Terminal Server MS-Exchange Server MS-SQL Server MS-IIS Server Citrix Metaframe Switches and Routers SonicWall Firewalls and SSL VPN Security Appliances Cisco Firewalls and Routers Cisco Certified Network Associate
+Data Center (CCNA-DC) MCSA+VCP, RHCE or equivalent Cisco Certified Network Associate
+Video (CCNA-VID) Cisco Certified Network Associate
+Voice (CCNA-V) Additional certifications Cisco Certified Network Professional
+Routing and Switching (CCNP-R/S) Cisco Certified Network Professional
+Wireless (CCNP-W) Cisco Certified Network Professional
+Security Check Point Certified Security Expert (CCSE) Certified Partner SE
+Security Cisco Certified Network Professional
+Data Center (CCNP-DC) Blue Coat Certified Proxy SG Professional Cisco Certified Network Professional
+Voice (CCNP-V) Any of the above certifications is a plus. The MS – Services Engineer (L1) is expected to gain certifications relevant to services supported. Certifications carry additional weight on candidate’s qualification for the role. Required Experience: Entry level experience or completion of relevant intern program Entry level experience with troubleshooting and providing support required in network/ data centre/ systems/ storage administration and monitoring Services within a medium to large ICT organisation. Working knowledge of management agent, redundancy concepts, and products within the supported technical domain (i.e. Network, Data Center, Telephony, Exchange, Storage, Cloud, Backup etc) What will make you a good fit for the role? Standard career level descriptor for job level:
+Develops professional experience
+Applies policy and procedures to solve variety of issues
+Problems are moderate in nature
+Build productive internal and external working relationships
+Receives general instructions on routine work
+Receives detailed instructions on new work
+Typically needs a Bachelor’s or equivalent and entry or basic level experience; or an advanced or equivalent degree without experience; or equivalent work experience</t>
+  </si>
+  <si>
+    <t>Company Description
+Isabel Gonzalez
+Job Description
+Empresa ubicada en lampa requiere a una encargada de sistema de gestión.
 Funciones
 Dirigir Sistema Integrado de Gestión de la planta.
 Realizar auditorías internas y ser quien recibe a auditores externos.
@@ -2872,29 +2877,6 @@
 Debe tener muy buenas habilidades de observación, capacidad analítica para resolver problemas operativos, entregando soluciones eficientes y convincentes en materia de implementación de acciones
 Ser capaz de entregar energía adicional a los procesos, con el objetivo de lograr resultados en el menor plazo posible.
 </t>
-  </si>
-  <si>
-    <t>In a constantly changing world, we work together with our people, clients and communities to enable them to fulfill their potential to do great things. We believe that by bringing everyone together, we can solve problems using innovative technology that can create a world that is sustainable and secure. At NTT, we encourage you to remain continuously curious, as that is what keeps you fast, flexible and relevant. No two days will be the same but that is what will help you grow and realize your full potential. The power is in your hands to do great things. It’s time to lead the change, be the authentic you, to solve difficult challenges, to set the pace of change and to unleash your potential. Want to be a part of our team?The MS Engineer (L1) is responsible for providing a managed service to clients to ensure that their IT infrastructure and systems remain operational through proactively identifying, investigating and resolving technical incidents and problems and to restore service to clients by managing incidents to resolution. Their primary objective is to ensure zero missed service level agreement conditions. The MS Engineer (L1) focuses on first line support for standard and low complexity incidents and service requests. Radford reference: Provides technical support to field engineers, technicians, and product support personnel who are diagnosing, troubleshooting, repairing and debugging complex electro/mechanical equipment, computer systems, complex software, or networked and/or wireless systems. Responds to situations where first-line product support has failed to isolate or fix problems in malfunctioning equipment or software. Reports design, reliability and maintenance problems or bugs to design engineering/software engineering. May be involved in customer installation and training. Provides support to customer/users where the product is highly technical or sophisticated in nature. Survey Tip: In software companies this position generally interacts directly with the customer/user when the product is highly technical or sophisticated in nature, such as with systems level software where the user has a technical background. In a less sophisticated environment, as with many applications products where the user is nontechnical, this position would generally interact with product support personnel and potentially the customer when the customer’s problem cannot be resolved directly by first-level resources. Working at NTT Key Roles and Responsibilities: Monitors client infrastructure and solutions Identify problems and errors prior to or when they occur Routinely identify common incidents and opportunities for avoidance as well as general opportunities for incident reduction Investigate first line incidents assigned and identify the root cause of incidents and problems Fulfil approved requests following agreed procedures Provide telephonic or chat support to clients when required Execute approved maintenance activities including patching and configuration changes Follow the required handover procedures for shift changes to ensure service continuity Report and escalate incidents where necessary Ensure the efficient and comprehensive resolutions of incidents and requests Proactively identify opportunities for work optimisation Update existing knowledge articles or create new ones Identify opportunities for work optimisation including opportunities for automation of work, request fulfilment, incident resolution and other general process improvement opportunities. Knowledge, Skills and Attributes: Ability to communicate and work across different cultures and social groups Ability to plans activities and projects well in advance, and takes into account possible changing circumstances Ability to maintain a positive outlook at work Ability to work well in a pressurised environment Ability to work hard and put in longer hours when it is necessary Ability to apply active listening techniques such as paraphrasing the message to confirm understanding, probing for further relevant information and refraining from interrupting Ability to adapt to changing circumstances Ability to place client at the forefront of all interactions, understanding their requirements and creating a positive client experience throughout the total client journey Academic Qualifications Diploma, degree or relevant qualification in IT/Computing (or demonstrated equivalent work experience) Advantageous certifications: Up to date and relevant ITIL certification (Foundation Level) Cisco Certified Network Associate
-Routing and Switching (CCNA-R/S) Cisco Certified Network Associate
-Wireless (CCNA-WL) Riverbed Certified Solutions Associate
-WAN Optimization (RCSA-W) Cisco Certified Network Associate
-Security (CCNA-SEC) Check Point Certified Security Administrator (CCSA) Check Point Certified Security Administrator NG with Application Intelligence (CCSA-NG AI) VMware Certified Professional vSphere IP, WINS, DHCP, DNC, etc MS-Office, MS-Outlook, Symantec Backup Exec, Symantec EndPoint Protection, Symantec System Recovery, Citrix Go-To-Assist MS-Active Directory MS-Windows Server MS-Windows XP Professional MS-Windows Terminal Server MS-Exchange Server MS-SQL Server MS-IIS Server Citrix Metaframe Switches and Routers SonicWall Firewalls and SSL VPN Security Appliances Cisco Firewalls and Routers Cisco Certified Network Associate
-Data Center (CCNA-DC) MCSA+VCP, RHCE or equivalent Cisco Certified Network Associate
-Video (CCNA-VID) Cisco Certified Network Associate
-Voice (CCNA-V) Additional certifications Cisco Certified Network Professional
-Routing and Switching (CCNP-R/S) Cisco Certified Network Professional
-Wireless (CCNP-W) Cisco Certified Network Professional
-Security Check Point Certified Security Expert (CCSE) Certified Partner SE
-Security Cisco Certified Network Professional
-Data Center (CCNP-DC) Blue Coat Certified Proxy SG Professional Cisco Certified Network Professional
-Voice (CCNP-V) Any of the above certifications is a plus. The MS – Services Engineer (L1) is expected to gain certifications relevant to services supported. Certifications carry additional weight on candidate’s qualification for the role. Required Experience: Entry level experience or completion of relevant intern program Entry level experience with troubleshooting and providing support required in network/ data centre/ systems/ storage administration and monitoring Services within a medium to large ICT organisation. Working knowledge of management agent, redundancy concepts, and products within the supported technical domain (i.e. Network, Data Center, Telephony, Exchange, Storage, Cloud, Backup etc) What will make you a good fit for the role? Standard career level descriptor for job level:
-Develops professional experience
-Applies policy and procedures to solve variety of issues
-Problems are moderate in nature
-Build productive internal and external working relationships
-Receives general instructions on routine work
-Receives detailed instructions on new work
-Typically needs a Bachelor’s or equivalent and entry or basic level experience; or an advanced or equivalent degree without experience; or equivalent work experience</t>
   </si>
   <si>
     <t>In a constantly changing world, we work together with our people, clients and communities to enable them to fulfill their potential to do great things. We believe that by bringing everyone together, we can solve problems using innovative technology that can create a world that is sustainable and secure. At NTT, we encourage you to remain continuously curious, as that is what keeps you fast, flexible and relevant. No two days will be the same but that is what will help you grow and realize your full potential.
@@ -2983,17 +2965,6 @@
 NTT is proud to be an equal opportunity employer with a global culture that embraces diversity. We are committed to providing an environment free of unfair discrimination and harassment. We do not discriminate based on age, race, color, sex, religion, national origin, disability, pregnancy, marital status, sexual orientation, gender reassignment, veteran status, or other protected category.</t>
   </si>
   <si>
-    <t>Company Description
-Bestwork English Institute
-Job Description
-Se requiere diseñador gráfico para realizar su práctica profesional, que esté cursando su penúltimo o último año de carrera profesional, en prestigioso instituto de inglés Bestwork. Las funciones del cargo dicen relación con generación de propuestas y diseños de infografías, campañas de marketing y material de apoyo en general
-Características De La Practica Profesional
-Jornada laboral:
-Lunes a Viernes : 10:00 am - 20:00 pm (con una hora de colación)
-Remuneración: $115.000
-Duración de practica profesional: 2 a 3 meses app.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Importante consultora de RR.HH. requiere a un Jefe de Aduana Interina, para empresa dedicada al rubro de los metales.
 Será el responsable de elaborar y ejecutar las políticas y procedimientos que permitan controlar los movimientos de entrada y salida de mercaderías en las bodegas de la compañía.
 Principales Funciones
@@ -3254,55 +3225,55 @@
 Recuerda que para llegar a la entrevista online deberás completar las etapas anteriores en el menor tiempo posible.</t>
   </si>
   <si>
-    <t>['Ventas,FinanzasyGestión']</t>
-  </si>
-  <si>
-    <t>['Marketing,FinanzasyVentas']</t>
-  </si>
-  <si>
-    <t>['RelacionespúblicasyRedacciónyrevisión']</t>
-  </si>
-  <si>
-    <t>['Relacionespúblicas,PublicidadyMarketing']</t>
-  </si>
-  <si>
-    <t>['Publicidad,Arte/CreatividadyMarketing']</t>
-  </si>
-  <si>
-    <t>['MarketingyVentas']</t>
-  </si>
-  <si>
-    <t>['Atenciónalcliente,RecursoshumanosyOtro']</t>
-  </si>
-  <si>
-    <t>['VentasyIngeniería']</t>
-  </si>
-  <si>
-    <t>['Desarrolloempresarial']</t>
-  </si>
-  <si>
-    <t>['EducaciónyFormación']</t>
-  </si>
-  <si>
-    <t>['AtenciónalclienteyTecnologíadelainformación']</t>
-  </si>
-  <si>
-    <t>['Tecnologíadelainformación']</t>
-  </si>
-  <si>
-    <t>['IngenieríayTecnologíadelainformación']</t>
-  </si>
-  <si>
-    <t>['Investigación,AnálisisyTecnologíadelainformación']</t>
-  </si>
-  <si>
-    <t>['TecnologíadelainformaciónyIngeniería']</t>
-  </si>
-  <si>
-    <t>['Controldecalidad']</t>
-  </si>
-  <si>
-    <t>['Diseño,Arte/CreatividadyTecnologíadelainformación']</t>
+    <t>['Ventas', ' Finanzas ', 'Gestión']</t>
+  </si>
+  <si>
+    <t>['Marketing', ' Finanzas ', 'Ventas']</t>
+  </si>
+  <si>
+    <t>['Relaciones públicas ', 'Redacción ', 'revisión']</t>
+  </si>
+  <si>
+    <t>['Relaciones públicas', ' Publicidad ', 'Marketing']</t>
+  </si>
+  <si>
+    <t>['Atención al cliente', ' Recursos humanos ', 'Otro']</t>
+  </si>
+  <si>
+    <t>['Marketing ', 'Ventas']</t>
+  </si>
+  <si>
+    <t>['Publicidad', ' Arte/Creatividad ', 'Marketing']</t>
+  </si>
+  <si>
+    <t>['Desarrollo empresarial']</t>
+  </si>
+  <si>
+    <t>['Educación ', 'Formación']</t>
+  </si>
+  <si>
+    <t>['Ventas ', 'Ingeniería']</t>
+  </si>
+  <si>
+    <t>['Atención al cliente ', 'Tecnología de la información']</t>
+  </si>
+  <si>
+    <t>['Tecnología de la información']</t>
+  </si>
+  <si>
+    <t>['Ingeniería ', 'Tecnología de la información']</t>
+  </si>
+  <si>
+    <t>['Investigación', ' Análisis ', 'Tecnología de la información']</t>
+  </si>
+  <si>
+    <t>['Tecnología de la información ', 'Ingeniería']</t>
+  </si>
+  <si>
+    <t>['Control de calidad']</t>
+  </si>
+  <si>
+    <t>['Diseño', ' Arte/Creatividad ', 'Tecnología de la información']</t>
   </si>
   <si>
     <t>['Ventas']</t>
@@ -3311,238 +3282,232 @@
     <t>['Otro']</t>
   </si>
   <si>
-    <t>['FinanzasyVentas']</t>
-  </si>
-  <si>
-    <t>['Recursoshumanos']</t>
-  </si>
-  <si>
-    <t>['VentasyDesarrolloempresarial']</t>
-  </si>
-  <si>
-    <t>['Consultoría,LegalyGestión']</t>
-  </si>
-  <si>
-    <t>['TecnologíadelainformaciónyAtenciónalcliente']</t>
+    <t>['Finanzas ', 'Ventas']</t>
+  </si>
+  <si>
+    <t>['Ventas ', 'Desarrollo empresarial']</t>
+  </si>
+  <si>
+    <t>['Recursos humanos']</t>
+  </si>
+  <si>
+    <t>['Consultoría', ' Legal ', 'Gestión']</t>
+  </si>
+  <si>
+    <t>['Tecnología de la información ', 'Atención al cliente']</t>
   </si>
   <si>
     <t>['Ingeniería']</t>
   </si>
   <si>
-    <t>['Marketing,RelacionespúblicasyRedacciónyrevisión']</t>
+    <t>['Marketing', ' Relaciones públicas ', 'Redacción ', 'revisión']</t>
   </si>
   <si>
     <t>['Administración']</t>
   </si>
   <si>
-    <t>['GestiónyManufactura']</t>
-  </si>
-  <si>
-    <t>['Atenciónmédica']</t>
-  </si>
-  <si>
-    <t>['DesarrolloempresarialyVentas']</t>
-  </si>
-  <si>
-    <t>['Negocios,GestiónyDesarrolloempresarial']</t>
-  </si>
-  <si>
-    <t>['Otro,TecnologíadelainformaciónyGestión']</t>
-  </si>
-  <si>
-    <t>Jornadacompleta</t>
-  </si>
-  <si>
-    <t>Prácticas</t>
-  </si>
-  <si>
-    <t>Mediajornada</t>
-  </si>
-  <si>
-    <t>Otro</t>
-  </si>
-  <si>
-    <t>Temporal</t>
-  </si>
-  <si>
-    <t>Ventaalpormenor,RecursoshumanosyAlimentaciónybebidas</t>
-  </si>
-  <si>
-    <t>Cosmética</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Telecomunicaciones</t>
-  </si>
-  <si>
-    <t>Artículosdeconsumo,VentaalpormenoryArtículosdeportivos</t>
-  </si>
-  <si>
-    <t>Artículosdeconsumo</t>
-  </si>
-  <si>
-    <t>Serviciosytecnologíasdelainformación,SoftwareyServiciosfinancieros</t>
-  </si>
-  <si>
-    <t>Energíarenovableymedioambiente,DotaciónyseleccióndepersonalyPetróleoyenergía</t>
-  </si>
-  <si>
-    <t>Software,InternetyServiciosfinancieros</t>
-  </si>
-  <si>
-    <t>Marketingypublicidad,ServiciosytecnologíasdelainformaciónyRecursoshumanos</t>
-  </si>
-  <si>
-    <t>Equiposinformáticos,SoftwareyServiciosytecnologíasdelainformación</t>
-  </si>
-  <si>
-    <t>Marketingypublicidad</t>
-  </si>
-  <si>
-    <t>Marketingypublicidad,SoftwareyInternet</t>
-  </si>
-  <si>
-    <t>Equiposinformáticos</t>
-  </si>
-  <si>
-    <t>Serviciosytecnologíasdelainformación,SoftwareyInternet</t>
-  </si>
-  <si>
-    <t>SoftwareyServiciosytecnologíasdelainformación</t>
-  </si>
-  <si>
-    <t>Dotaciónyseleccióndepersonal,RecursoshumanosyAdministracióngubernamental</t>
-  </si>
-  <si>
-    <t>Investigacióndemercado,ServiciosytecnologíasdelainformaciónyVentaalpormenor</t>
-  </si>
-  <si>
-    <t>Semiconductores,SoftwareyEquiposinformáticos</t>
-  </si>
-  <si>
-    <t>ServiciosytecnologíasdelainformaciónyTelecomunicaciones</t>
-  </si>
-  <si>
-    <t>Educaciónprimaria/secundaria,EnseñanzasuperioryRecursoshumanos</t>
-  </si>
-  <si>
-    <t>Marketingypublicidad,SoftwareySeguros</t>
-  </si>
-  <si>
-    <t>Manufacturaeléctrica/electrónica</t>
-  </si>
-  <si>
-    <t>Marketingypublicidad,ArtículosdeconsumoyRecursoshumanos</t>
-  </si>
-  <si>
-    <t>Alimentaciónybebidas,ArtículosdeconsumoyProducciónalimentaria</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Dotaciónyseleccióndepersonal,RecursoshumanosyConsultoríadeestrategiayoperaciones</t>
-  </si>
-  <si>
-    <t>Ingenieríaindustrialomecánica</t>
-  </si>
-  <si>
-    <t>Alimentaciónybebidas,RecursoshumanosyAtenciónsanitariayhospitalaria</t>
-  </si>
-  <si>
-    <t>Construcción,PetróleoyenergíayServiciosfinancieros</t>
-  </si>
-  <si>
-    <t>Educaciónprimaria/secundaria,EnseñanzasuperioryAdministracióngubernamental</t>
-  </si>
-  <si>
-    <t>Recursoshumanos,ServiciosfinancierosyAtenciónsanitariayhospitalaria</t>
-  </si>
-  <si>
-    <t>Ingenieríacivil,RecursoshumanosyServiciosfinancieros</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>Marketingypublicidad,ServiciosytecnologíasdelainformaciónyInternet</t>
-  </si>
-  <si>
-    <t>Serviciosytecnologíasdelainformación,SoftwareyConsultoríadeestrategiayoperaciones</t>
-  </si>
-  <si>
-    <t>Recursoshumanos,VentaalpormenoryServiciosfinancieros</t>
-  </si>
-  <si>
-    <t>Serviciosytecnologíasdelainformación,SoftwareyTelecomunicaciones</t>
-  </si>
-  <si>
-    <t>Gestióndeorganizacionessinánimodelucro,EnseñanzasuperioryAdministracióngubernamental</t>
-  </si>
-  <si>
-    <t>Relacionespúblicasycomunicaciones,GestióndeorganizacionessinánimodelucroyInvestigación</t>
-  </si>
-  <si>
-    <t>Banca,ServiciosfinancierosyBancadeinversiones</t>
-  </si>
-  <si>
-    <t>Marketingypublicidad,RecursoshumanosyOcio,viajesyturismo</t>
-  </si>
-  <si>
-    <t>Marketingypublicidad,AlimentaciónybebidasyArtículosdeconsumo</t>
-  </si>
-  <si>
-    <t>Alimentaciónybebidas,ProducciónalimentariayArtículosdeconsumo</t>
-  </si>
-  <si>
-    <t>Alimentaciónybebidas,DotaciónyseleccióndepersonalyRecursoshumanos</t>
-  </si>
-  <si>
-    <t>Logísticaycadenadesuministro,RecursoshumanosyConsultoríadeestrategiayoperaciones</t>
-  </si>
-  <si>
-    <t>Alimentaciónybebidas,ProducciónalimentariayRecursoshumanos</t>
-  </si>
-  <si>
-    <t>Alimentaciónybebidas,RelacionespúblicasycomunicacionesyRecursoshumanos</t>
-  </si>
-  <si>
-    <t>Construcción,IngenieríaindustrialomecánicayRecursoshumanos</t>
-  </si>
-  <si>
-    <t>Marketingypublicidad,InternetyRecursoshumanos</t>
-  </si>
-  <si>
-    <t>Serviciosytecnologíasdelainformación,RecursoshumanosyServiciosfinancieros</t>
-  </si>
-  <si>
-    <t>Recursoshumanos,ServicioalconsumidoryTransporteporcarreteraoferrocarril</t>
-  </si>
-  <si>
-    <t>Recursoshumanos,BiotecnologíayAtenciónsanitariayhospitalaria</t>
-  </si>
-  <si>
-    <t>Construcción,RecursoshumanosyServiciosfinancieros</t>
-  </si>
-  <si>
-    <t>Recursoshumanos,AtenciónsanitariayhospitalariayIndustriafarmacéutica</t>
-  </si>
-  <si>
-    <t>Logísticaycadenadesuministro,RecursoshumanosyTransporteporcarreteraoferrocarril</t>
-  </si>
-  <si>
-    <t>Mineríaymetalurgia,RecursoshumanosyTransporteporcarreteraoferrocarril</t>
-  </si>
-  <si>
-    <t>Telecomunicaciones,RecursoshumanosyServiciosfinancieros</t>
-  </si>
-  <si>
-    <t>Construcción,IngenieríacivilyRecursoshumanos</t>
-  </si>
-  <si>
-    <t>Recursoshumanos,SegurosyServiciosfinancieros</t>
+    <t>['Gestión ', 'Manufactura']</t>
+  </si>
+  <si>
+    <t>['Atención médica']</t>
+  </si>
+  <si>
+    <t>['Desarrollo empresarial ', 'Ventas']</t>
+  </si>
+  <si>
+    <t>['Negocios', ' Gestión ', 'Desarrollo empresarial']</t>
+  </si>
+  <si>
+    <t>['Otro', ' Tecnología de la información ', 'Gestión']</t>
+  </si>
+  <si>
+    <t>['Jornada completa']</t>
+  </si>
+  <si>
+    <t>['Prácticas']</t>
+  </si>
+  <si>
+    <t>['Media jornada']</t>
+  </si>
+  <si>
+    <t>['Temporal']</t>
+  </si>
+  <si>
+    <t>['Venta al por menor', ' Recursos humanos ', 'Alimentación ', 'bebidas']</t>
+  </si>
+  <si>
+    <t>['Cosmética']</t>
+  </si>
+  <si>
+    <t>['Internet']</t>
+  </si>
+  <si>
+    <t>['Telecomunicaciones']</t>
+  </si>
+  <si>
+    <t>['Servicios ', 'tecnologías de la información ', ' Software ', 'Servicios financieros']</t>
+  </si>
+  <si>
+    <t>['Artículos de consumo']</t>
+  </si>
+  <si>
+    <t>['Artículos de consumo', ' Venta al por menor ', 'Artículos deportivos']</t>
+  </si>
+  <si>
+    <t>['Software', ' Internet ', 'Servicios financieros']</t>
+  </si>
+  <si>
+    <t>['Marketing ', 'publicidad', ' Servicios ', 'tecnologías de la información ', 'Recursos humanos']</t>
+  </si>
+  <si>
+    <t>['Energía renovable ', 'medio ambiente', ' Dotación ', 'selección de personal ', 'Petróleo ', 'energía']</t>
+  </si>
+  <si>
+    <t>['Equipos informáticos', ' Software ', 'Servicios ', 'tecnologías de la información']</t>
+  </si>
+  <si>
+    <t>['Marketing ', 'publicidad']</t>
+  </si>
+  <si>
+    <t>['Marketing ', 'publicidad', ' Software ', 'Internet']</t>
+  </si>
+  <si>
+    <t>['Equipos informáticos']</t>
+  </si>
+  <si>
+    <t>['Software ', 'Servicios ', 'tecnologías de la información']</t>
+  </si>
+  <si>
+    <t>['Dotación ', 'selección de personal', ' Recursos humanos ', 'Administración gubernamental']</t>
+  </si>
+  <si>
+    <t>['Servicios ', 'tecnologías de la información ', ' Software ', 'Internet']</t>
+  </si>
+  <si>
+    <t>['Investigación de mercado', ' Servicios ', 'tecnologías de la información ', 'Venta al por menor']</t>
+  </si>
+  <si>
+    <t>['Semiconductores', ' Software ', 'Equipos informáticos']</t>
+  </si>
+  <si>
+    <t>['Servicios ', 'tecnologías de la información ', 'Telecomunicaciones']</t>
+  </si>
+  <si>
+    <t>['Educación primaria/secundaria', ' Enseñanza superior ', 'Recursos humanos']</t>
+  </si>
+  <si>
+    <t>['Marketing ', 'publicidad', ' Software ', 'Seguros']</t>
+  </si>
+  <si>
+    <t>['Manufactura eléctrica/electrónica']</t>
+  </si>
+  <si>
+    <t>['Alimentación ', 'bebidas', ' Artículos de consumo ', 'Producción alimentaria']</t>
+  </si>
+  <si>
+    <t>['Software']</t>
+  </si>
+  <si>
+    <t>['Servicios ', 'tecnologías de la información ', ' Software ', 'Consultoría de estrategia ', 'operaciones']</t>
+  </si>
+  <si>
+    <t>['Dotación ', 'selección de personal', ' Recursos humanos ', 'Consultoría de estrategia ', 'operaciones']</t>
+  </si>
+  <si>
+    <t>['Ingeniería industrial o mecánica']</t>
+  </si>
+  <si>
+    <t>['Alimentación ', 'bebidas', ' Recursos humanos ', 'Atención sanitaria ', 'hospitalaria']</t>
+  </si>
+  <si>
+    <t>['Marketing ', 'publicidad', ' Artículos de consumo ', 'Recursos humanos']</t>
+  </si>
+  <si>
+    <t>['Construcción', ' Petróleo ', 'energía ', 'Servicios financieros']</t>
+  </si>
+  <si>
+    <t>['Recursos humanos', ' Servicios financieros ', 'Atención sanitaria ', 'hospitalaria']</t>
+  </si>
+  <si>
+    <t>['Educación primaria/secundaria', ' Enseñanza superior ', 'Administración gubernamental']</t>
+  </si>
+  <si>
+    <t>['Ingeniería civil', ' Recursos humanos ', 'Servicios financieros']</t>
+  </si>
+  <si>
+    <t>['Contabilidad']</t>
+  </si>
+  <si>
+    <t>['Marketing ', 'publicidad', ' Servicios ', 'tecnologías de la información ', 'Internet']</t>
+  </si>
+  <si>
+    <t>['Recursos humanos', ' Venta al por menor ', 'Servicios financieros']</t>
+  </si>
+  <si>
+    <t>['Servicios ', 'tecnologías de la información ', ' Software ', 'Telecomunicaciones']</t>
+  </si>
+  <si>
+    <t>['Relaciones públicas ', 'comunicaciones', ' Gestión de organizaciones sin ánimo de lucro ', 'Investigación']</t>
+  </si>
+  <si>
+    <t>['Gestión de organizaciones sin ánimo de lucro', ' Enseñanza superior ', 'Administración gubernamental']</t>
+  </si>
+  <si>
+    <t>['Banca', ' Servicios financieros ', 'Banca de inversiones']</t>
+  </si>
+  <si>
+    <t>['Marketing ', 'publicidad', ' Recursos humanos ', 'Ocio', ' viajes ', 'turismo']</t>
+  </si>
+  <si>
+    <t>['Marketing ', 'publicidad', ' Alimentación ', 'bebidas ', 'Artículos de consumo']</t>
+  </si>
+  <si>
+    <t>['Alimentación ', 'bebidas', ' Producción alimentaria ', 'Artículos de consumo']</t>
+  </si>
+  <si>
+    <t>['Alimentación ', 'bebidas', ' Dotación ', 'selección de personal ', 'Recursos humanos']</t>
+  </si>
+  <si>
+    <t>['Logística ', 'cadena de suministro', ' Recursos humanos ', 'Consultoría de estrategia ', 'operaciones']</t>
+  </si>
+  <si>
+    <t>['Alimentación ', 'bebidas', ' Relaciones públicas ', 'comunicaciones ', 'Recursos humanos']</t>
+  </si>
+  <si>
+    <t>['Alimentación ', 'bebidas', ' Producción alimentaria ', 'Recursos humanos']</t>
+  </si>
+  <si>
+    <t>['Construcción', ' Ingeniería industrial o mecánica ', 'Recursos humanos']</t>
+  </si>
+  <si>
+    <t>['Servicios ', 'tecnologías de la información ', ' Recursos humanos ', 'Servicios financieros']</t>
+  </si>
+  <si>
+    <t>['Recursos humanos', ' Servicio al consumidor ', 'Transporte por carretera o ferrocarril']</t>
+  </si>
+  <si>
+    <t>['Recursos humanos', ' Biotecnología ', 'Atención sanitaria ', 'hospitalaria']</t>
+  </si>
+  <si>
+    <t>['Construcción', ' Recursos humanos ', 'Servicios financieros']</t>
+  </si>
+  <si>
+    <t>['Recursos humanos', ' Atención sanitaria ', 'hospitalaria ', 'Industria farmacéutica']</t>
+  </si>
+  <si>
+    <t>['Logística ', 'cadena de suministro', ' Recursos humanos ', 'Transporte por carretera o ferrocarril']</t>
+  </si>
+  <si>
+    <t>['Minería ', 'metalurgia', ' Recursos humanos ', 'Transporte por carretera o ferrocarril']</t>
+  </si>
+  <si>
+    <t>['Telecomunicaciones', ' Recursos humanos ', 'Servicios financieros']</t>
+  </si>
+  <si>
+    <t>['Construcción', ' Ingeniería civil ', 'Recursos humanos']</t>
+  </si>
+  <si>
+    <t>['Recursos humanos', ' Seguros ', 'Servicios financieros']</t>
   </si>
   <si>
     <t>linkedin</t>
@@ -3551,8 +3516,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3623,24 +3588,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3682,7 +3639,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3714,27 +3671,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3766,24 +3705,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3959,16 +3880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4000,2159 +3919,2159 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I4" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I5" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H6" t="s">
+        <v>460</v>
+      </c>
+      <c r="I6" t="s">
         <v>467</v>
       </c>
-      <c r="I6" t="s">
-        <v>473</v>
-      </c>
       <c r="J6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H8" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="I8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F9" t="s">
-        <v>346</v>
+        <v>342</v>
+      </c>
+      <c r="G9" t="s">
+        <v>434</v>
       </c>
       <c r="H9" t="s">
-        <v>465</v>
+        <v>459</v>
+      </c>
+      <c r="I9" t="s">
+        <v>470</v>
       </c>
       <c r="J9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H10" t="s">
+        <v>459</v>
+      </c>
+      <c r="I10" t="s">
+        <v>471</v>
+      </c>
+      <c r="J10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H11" t="s">
+        <v>460</v>
+      </c>
+      <c r="J11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" t="s">
+        <v>460</v>
+      </c>
+      <c r="I12" t="s">
+        <v>472</v>
+      </c>
+      <c r="J12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F10" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" t="s">
-        <v>439</v>
-      </c>
-      <c r="H10" t="s">
-        <v>465</v>
-      </c>
-      <c r="I10" t="s">
-        <v>476</v>
-      </c>
-      <c r="J10" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F11" t="s">
-        <v>348</v>
-      </c>
-      <c r="H11" t="s">
-        <v>465</v>
-      </c>
-      <c r="J11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F12" t="s">
-        <v>349</v>
-      </c>
-      <c r="G12" t="s">
-        <v>440</v>
-      </c>
-      <c r="H12" t="s">
-        <v>464</v>
-      </c>
-      <c r="I12" t="s">
-        <v>477</v>
-      </c>
-      <c r="J12" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F13" t="s">
-        <v>350</v>
-      </c>
-      <c r="G13" t="s">
-        <v>441</v>
+        <v>346</v>
       </c>
       <c r="H13" t="s">
-        <v>464</v>
-      </c>
-      <c r="I13" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="J13" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G14" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H14" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I14" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J14" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G15" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H15" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I15" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="J15" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G16" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H16" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I16" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="J16" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" t="s">
+        <v>350</v>
+      </c>
+      <c r="G17" t="s">
+        <v>438</v>
+      </c>
+      <c r="H17" t="s">
+        <v>459</v>
+      </c>
+      <c r="I17" t="s">
+        <v>476</v>
+      </c>
+      <c r="J17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>118</v>
       </c>
-      <c r="C17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" t="s">
+        <v>439</v>
+      </c>
+      <c r="H18" t="s">
+        <v>459</v>
+      </c>
+      <c r="I18" t="s">
+        <v>477</v>
+      </c>
+      <c r="J18" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" t="s">
+        <v>352</v>
+      </c>
+      <c r="G19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H19" t="s">
+        <v>460</v>
+      </c>
+      <c r="I19" t="s">
+        <v>467</v>
+      </c>
+      <c r="J19" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" t="s">
+        <v>353</v>
+      </c>
+      <c r="G20" t="s">
+        <v>440</v>
+      </c>
+      <c r="H20" t="s">
+        <v>460</v>
+      </c>
+      <c r="I20" t="s">
+        <v>478</v>
+      </c>
+      <c r="J20" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F21" t="s">
         <v>354</v>
       </c>
-      <c r="G17" t="s">
-        <v>443</v>
-      </c>
-      <c r="H17" t="s">
-        <v>464</v>
-      </c>
-      <c r="I17" t="s">
-        <v>482</v>
-      </c>
-      <c r="J17" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="G21" t="s">
+        <v>437</v>
+      </c>
+      <c r="H21" t="s">
+        <v>460</v>
+      </c>
+      <c r="I21" t="s">
+        <v>479</v>
+      </c>
+      <c r="J21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F22" t="s">
         <v>355</v>
       </c>
-      <c r="G18" t="s">
-        <v>442</v>
-      </c>
-      <c r="H18" t="s">
-        <v>465</v>
-      </c>
-      <c r="I18" t="s">
-        <v>483</v>
-      </c>
-      <c r="J18" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="G22" t="s">
+        <v>435</v>
+      </c>
+      <c r="H22" t="s">
+        <v>459</v>
+      </c>
+      <c r="I22" t="s">
+        <v>480</v>
+      </c>
+      <c r="J22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F23" t="s">
         <v>356</v>
       </c>
-      <c r="G19" t="s">
-        <v>444</v>
-      </c>
-      <c r="H19" t="s">
-        <v>464</v>
-      </c>
-      <c r="I19" t="s">
-        <v>484</v>
-      </c>
-      <c r="J19" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="G23" t="s">
+        <v>437</v>
+      </c>
+      <c r="H23" t="s">
+        <v>460</v>
+      </c>
+      <c r="I23" t="s">
+        <v>479</v>
+      </c>
+      <c r="J23" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F24" t="s">
         <v>357</v>
       </c>
-      <c r="G20" t="s">
-        <v>445</v>
-      </c>
-      <c r="H20" t="s">
-        <v>465</v>
-      </c>
-      <c r="I20" t="s">
-        <v>485</v>
-      </c>
-      <c r="J20" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="G24" t="s">
+        <v>438</v>
+      </c>
+      <c r="H24" t="s">
+        <v>460</v>
+      </c>
+      <c r="I24" t="s">
+        <v>479</v>
+      </c>
+      <c r="J24" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F25" t="s">
         <v>358</v>
       </c>
-      <c r="G21" t="s">
-        <v>441</v>
-      </c>
-      <c r="H21" t="s">
-        <v>465</v>
-      </c>
-      <c r="I21" t="s">
-        <v>475</v>
-      </c>
-      <c r="J21" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F22" t="s">
-        <v>359</v>
-      </c>
-      <c r="H22" t="s">
-        <v>465</v>
-      </c>
-      <c r="J22" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F23" t="s">
-        <v>360</v>
-      </c>
-      <c r="G23" t="s">
-        <v>441</v>
-      </c>
-      <c r="H23" t="s">
-        <v>464</v>
-      </c>
-      <c r="I23" t="s">
-        <v>486</v>
-      </c>
-      <c r="J23" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F24" t="s">
-        <v>361</v>
-      </c>
-      <c r="G24" t="s">
-        <v>442</v>
-      </c>
-      <c r="H24" t="s">
-        <v>465</v>
-      </c>
-      <c r="I24" t="s">
-        <v>483</v>
-      </c>
-      <c r="J24" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F25" t="s">
-        <v>362</v>
-      </c>
-      <c r="G25" t="s">
-        <v>443</v>
-      </c>
       <c r="H25" t="s">
-        <v>465</v>
-      </c>
-      <c r="I25" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="J25" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G26" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H26" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I26" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="J26" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F27" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G27" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H27" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I27" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J27" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F28" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G28" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H28" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I28" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="J28" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F29" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G29" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H29" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I29" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="J29" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G30" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H30" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I30" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="J30" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F31" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G31" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H31" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I31" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="J31" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G32" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I32" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="J32" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
         <v>181</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>307</v>
       </c>
       <c r="F33" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G33" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H33" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="I33" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="J33" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F34" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H34" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I34" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="J34" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="F35" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G35" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H35" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="I35" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="J35" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F36" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G36" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H36" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I36" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="J36" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F37" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G37" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H37" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J37" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F38" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G38" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J38" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F39" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G39" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H39" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I39" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="J39" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F40" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G40" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H40" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I40" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="J40" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F41" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G41" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H41" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I41" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J41" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G42" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H42" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I42" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="J42" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G43" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H43" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I43" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="J43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F44" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G44" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H44" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I44" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="J44" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F45" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G45" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="H45" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I45" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="J45" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>307</v>
       </c>
       <c r="F46" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G46" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H46" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I46" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="J46" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" t="s">
+        <v>442</v>
+      </c>
+      <c r="H47" t="s">
+        <v>460</v>
+      </c>
+      <c r="I47" t="s">
+        <v>467</v>
+      </c>
+      <c r="J47" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F48" t="s">
+        <v>380</v>
+      </c>
+      <c r="G48" t="s">
+        <v>451</v>
+      </c>
+      <c r="H48" t="s">
+        <v>460</v>
+      </c>
+      <c r="I48" t="s">
+        <v>489</v>
+      </c>
+      <c r="J48" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F49" t="s">
+        <v>381</v>
+      </c>
+      <c r="G49" t="s">
+        <v>445</v>
+      </c>
+      <c r="H49" t="s">
+        <v>459</v>
+      </c>
+      <c r="I49" t="s">
+        <v>490</v>
+      </c>
+      <c r="J49" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F47" t="s">
-        <v>358</v>
-      </c>
-      <c r="G47" t="s">
-        <v>447</v>
-      </c>
-      <c r="H47" t="s">
-        <v>465</v>
-      </c>
-      <c r="I47" t="s">
-        <v>475</v>
-      </c>
-      <c r="J47" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F48" t="s">
-        <v>384</v>
-      </c>
-      <c r="G48" t="s">
-        <v>456</v>
-      </c>
-      <c r="H48" t="s">
-        <v>465</v>
-      </c>
-      <c r="I48" t="s">
-        <v>495</v>
-      </c>
-      <c r="J48" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F49" t="s">
-        <v>385</v>
-      </c>
-      <c r="G49" t="s">
-        <v>450</v>
-      </c>
-      <c r="H49" t="s">
-        <v>464</v>
-      </c>
-      <c r="I49" t="s">
-        <v>496</v>
-      </c>
-      <c r="J49" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F50" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G50" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H50" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I50" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J50" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F51" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G51" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H51" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I51" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="J51" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F52" t="s">
+        <v>384</v>
+      </c>
+      <c r="G52" t="s">
+        <v>435</v>
+      </c>
+      <c r="H52" t="s">
+        <v>459</v>
+      </c>
+      <c r="I52" t="s">
+        <v>491</v>
+      </c>
+      <c r="J52" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F52" t="s">
-        <v>388</v>
-      </c>
-      <c r="G52" t="s">
-        <v>441</v>
-      </c>
-      <c r="H52" t="s">
-        <v>464</v>
-      </c>
-      <c r="I52" t="s">
-        <v>497</v>
-      </c>
-      <c r="J52" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>17</v>
-      </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F53" t="s">
-        <v>389</v>
+        <v>385</v>
+      </c>
+      <c r="G53" t="s">
+        <v>435</v>
       </c>
       <c r="H53" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+      <c r="I53" t="s">
+        <v>492</v>
       </c>
       <c r="J53" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G54" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H54" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I54" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J54" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F55" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G55" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H55" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I55" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="J55" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="F56" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G56" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="H56" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I56" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J56" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F57" t="s">
+        <v>389</v>
+      </c>
+      <c r="G57" t="s">
+        <v>452</v>
+      </c>
+      <c r="H57" t="s">
+        <v>459</v>
+      </c>
+      <c r="I57" t="s">
+        <v>495</v>
+      </c>
+      <c r="J57" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F58" t="s">
+        <v>390</v>
+      </c>
+      <c r="G58" t="s">
+        <v>452</v>
+      </c>
+      <c r="H58" t="s">
+        <v>459</v>
+      </c>
+      <c r="I58" t="s">
+        <v>496</v>
+      </c>
+      <c r="J58" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F59" t="s">
+        <v>391</v>
+      </c>
+      <c r="G59" t="s">
+        <v>445</v>
+      </c>
+      <c r="H59" t="s">
+        <v>459</v>
+      </c>
+      <c r="I59" t="s">
+        <v>497</v>
+      </c>
+      <c r="J59" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
         <v>143</v>
       </c>
-      <c r="C57" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C60" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="E60" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F60" t="s">
+        <v>392</v>
+      </c>
+      <c r="H60" t="s">
+        <v>459</v>
+      </c>
+      <c r="J60" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F61" t="s">
         <v>393</v>
       </c>
-      <c r="G57" t="s">
-        <v>441</v>
-      </c>
-      <c r="H57" t="s">
-        <v>464</v>
-      </c>
-      <c r="I57" t="s">
-        <v>500</v>
-      </c>
-      <c r="J57" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F58" t="s">
-        <v>394</v>
-      </c>
-      <c r="G58" t="s">
-        <v>457</v>
-      </c>
-      <c r="H58" t="s">
-        <v>464</v>
-      </c>
-      <c r="I58" t="s">
-        <v>501</v>
-      </c>
-      <c r="J58" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F59" t="s">
-        <v>395</v>
-      </c>
-      <c r="G59" t="s">
-        <v>450</v>
-      </c>
-      <c r="H59" t="s">
-        <v>464</v>
-      </c>
-      <c r="I59" t="s">
-        <v>502</v>
-      </c>
-      <c r="J59" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F60" t="s">
-        <v>396</v>
-      </c>
-      <c r="G60" t="s">
-        <v>441</v>
-      </c>
-      <c r="H60" t="s">
-        <v>464</v>
-      </c>
-      <c r="I60" t="s">
-        <v>503</v>
-      </c>
-      <c r="J60" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F61" t="s">
-        <v>397</v>
-      </c>
       <c r="G61" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H61" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I61" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J61" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F62" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G62" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H62" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I62" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="J62" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F63" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G63" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H63" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I63" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J63" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F64" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G64" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H64" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I64" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J64" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F65" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G65" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H65" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I65" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="J65" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F66" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G66" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="H66" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I66" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J66" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F67" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G67" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H67" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I67" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="J67" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F68" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G68" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H68" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I68" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J68" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F69" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G69" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H69" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I69" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J69" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -6160,1496 +6079,1462 @@
         <v>146</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F70" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G70" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H70" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I70" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="J70" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F71" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G71" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H71" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I71" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="J71" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F72" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G72" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H72" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I72" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="J72" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F73" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G73" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H73" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I73" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="J73" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F74" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G74" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H74" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="I74" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="J74" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F75" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G75" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H75" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I75" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="J75" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F76" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G76" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H76" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I76" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J76" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F77" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G77" t="s">
+        <v>454</v>
+      </c>
+      <c r="H77" t="s">
+        <v>460</v>
+      </c>
+      <c r="I77" t="s">
+        <v>509</v>
+      </c>
+      <c r="J77" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F78" t="s">
+        <v>407</v>
+      </c>
+      <c r="G78" t="s">
+        <v>439</v>
+      </c>
+      <c r="H78" t="s">
         <v>459</v>
       </c>
-      <c r="H77" t="s">
-        <v>465</v>
-      </c>
-      <c r="I77" t="s">
-        <v>515</v>
-      </c>
-      <c r="J77" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="I78" t="s">
+        <v>500</v>
+      </c>
+      <c r="J78" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
         <v>71</v>
       </c>
-      <c r="B78" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F78" t="s">
-        <v>411</v>
-      </c>
-      <c r="G78" t="s">
-        <v>459</v>
-      </c>
-      <c r="H78" t="s">
-        <v>465</v>
-      </c>
-      <c r="I78" t="s">
-        <v>516</v>
-      </c>
-      <c r="J78" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>72</v>
-      </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F79" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G79" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H79" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I79" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="J79" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F80" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G80" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H80" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I80" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="J80" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F81" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G81" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H81" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I81" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="J81" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F82" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G82" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="H82" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I82" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="J82" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G83" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H83" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I83" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="J83" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F84" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G84" t="s">
+        <v>454</v>
+      </c>
+      <c r="H84" t="s">
         <v>459</v>
-      </c>
-      <c r="H84" t="s">
-        <v>465</v>
       </c>
       <c r="I84" t="s">
         <v>513</v>
       </c>
       <c r="J84" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F85" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G85" t="s">
+        <v>455</v>
+      </c>
+      <c r="H85" t="s">
         <v>459</v>
       </c>
-      <c r="H85" t="s">
-        <v>464</v>
-      </c>
       <c r="I85" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J85" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F86" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G86" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="H86" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I86" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J86" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F87" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G87" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H87" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I87" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J87" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F88" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G88" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="H88" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I88" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="J88" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F89" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G89" t="s">
+        <v>454</v>
+      </c>
+      <c r="H89" t="s">
         <v>459</v>
       </c>
-      <c r="H89" t="s">
-        <v>465</v>
-      </c>
       <c r="I89" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J89" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F90" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G90" t="s">
+        <v>456</v>
+      </c>
+      <c r="H90" t="s">
         <v>459</v>
       </c>
-      <c r="H90" t="s">
-        <v>464</v>
-      </c>
       <c r="I90" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="J90" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F91" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G91" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H91" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I91" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="J91" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F92" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G92" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H92" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I92" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="J92" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F93" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G93" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H93" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I93" t="s">
         <v>519</v>
       </c>
       <c r="J93" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C94" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F94" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G94" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H94" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I94" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="J94" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F95" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G95" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="H95" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I95" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J95" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F96" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G96" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H96" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I96" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="J96" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F97" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G97" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H97" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I97" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="J97" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F98" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G98" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H98" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I98" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="J98" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C99" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F99" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G99" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H99" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I99" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="J99" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F100" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G100" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H100" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I100" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="J100" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F101" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G101" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H101" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I101" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="J101" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C102" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F102" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G102" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H102" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I102" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="J102" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C103" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F103" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G103" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H103" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I103" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="J103" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C104" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F104" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G104" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="H104" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I104" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="J104" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F105" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G105" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H105" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I105" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="J105" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C106" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F106" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G106" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H106" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I106" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="J106" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F107" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G107" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H107" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I107" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="J107" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F108" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G108" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="H108" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I108" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="J108" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>102</v>
-      </c>
-      <c r="B109" t="s">
-        <v>166</v>
-      </c>
-      <c r="C109" t="s">
-        <v>172</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F109" t="s">
-        <v>428</v>
-      </c>
-      <c r="G109" t="s">
-        <v>457</v>
-      </c>
-      <c r="H109" t="s">
-        <v>464</v>
-      </c>
-      <c r="I109" t="s">
-        <v>527</v>
-      </c>
-      <c r="J109" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D52" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E52" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D53" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E53" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D54" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E58" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D59" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E59" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D60" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E61" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D62" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E83" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E85" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E86" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E87" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E89" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E90" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D91" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E92" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D93" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E93" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D94" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E94" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D95" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E95" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D96" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E96" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D97" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E97" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D98" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E98" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D99" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="E99" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D100" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="E100" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="D101" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E101" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="D102" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E102" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="D103" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="E103" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="D104" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E104" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="D105" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E105" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="D106" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="E106" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D107" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E107" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="D108" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="E108" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="D109" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="E109" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
+    <hyperlink ref="D8" r:id="rId13"/>
+    <hyperlink ref="E8" r:id="rId14"/>
+    <hyperlink ref="D9" r:id="rId15"/>
+    <hyperlink ref="E9" r:id="rId16"/>
+    <hyperlink ref="D10" r:id="rId17"/>
+    <hyperlink ref="E10" r:id="rId18"/>
+    <hyperlink ref="D11" r:id="rId19"/>
+    <hyperlink ref="E11" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="E12" r:id="rId22"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="E13" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="E14" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="E15" r:id="rId28"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="E16" r:id="rId30"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="E17" r:id="rId32"/>
+    <hyperlink ref="D18" r:id="rId33"/>
+    <hyperlink ref="E18" r:id="rId34"/>
+    <hyperlink ref="D19" r:id="rId35"/>
+    <hyperlink ref="E19" r:id="rId36"/>
+    <hyperlink ref="D20" r:id="rId37"/>
+    <hyperlink ref="E20" r:id="rId38"/>
+    <hyperlink ref="D21" r:id="rId39"/>
+    <hyperlink ref="E21" r:id="rId40"/>
+    <hyperlink ref="D22" r:id="rId41"/>
+    <hyperlink ref="E22" r:id="rId42"/>
+    <hyperlink ref="D23" r:id="rId43"/>
+    <hyperlink ref="E23" r:id="rId44"/>
+    <hyperlink ref="D24" r:id="rId45"/>
+    <hyperlink ref="E24" r:id="rId46"/>
+    <hyperlink ref="D25" r:id="rId47"/>
+    <hyperlink ref="E25" r:id="rId48"/>
+    <hyperlink ref="D26" r:id="rId49"/>
+    <hyperlink ref="E26" r:id="rId50"/>
+    <hyperlink ref="D27" r:id="rId51"/>
+    <hyperlink ref="E27" r:id="rId52"/>
+    <hyperlink ref="D28" r:id="rId53"/>
+    <hyperlink ref="E28" r:id="rId54"/>
+    <hyperlink ref="D29" r:id="rId55"/>
+    <hyperlink ref="E29" r:id="rId56"/>
+    <hyperlink ref="D30" r:id="rId57"/>
+    <hyperlink ref="E30" r:id="rId58"/>
+    <hyperlink ref="D31" r:id="rId59"/>
+    <hyperlink ref="E31" r:id="rId60"/>
+    <hyperlink ref="D32" r:id="rId61"/>
+    <hyperlink ref="E32" r:id="rId62"/>
+    <hyperlink ref="D33" r:id="rId63"/>
+    <hyperlink ref="E33" r:id="rId64"/>
+    <hyperlink ref="D34" r:id="rId65"/>
+    <hyperlink ref="E34" r:id="rId66"/>
+    <hyperlink ref="D35" r:id="rId67"/>
+    <hyperlink ref="E35" r:id="rId68"/>
+    <hyperlink ref="D36" r:id="rId69"/>
+    <hyperlink ref="E36" r:id="rId70"/>
+    <hyperlink ref="D37" r:id="rId71"/>
+    <hyperlink ref="E37" r:id="rId72"/>
+    <hyperlink ref="D38" r:id="rId73"/>
+    <hyperlink ref="E38" r:id="rId74"/>
+    <hyperlink ref="D39" r:id="rId75"/>
+    <hyperlink ref="E39" r:id="rId76"/>
+    <hyperlink ref="D40" r:id="rId77"/>
+    <hyperlink ref="E40" r:id="rId78"/>
+    <hyperlink ref="D41" r:id="rId79"/>
+    <hyperlink ref="E41" r:id="rId80"/>
+    <hyperlink ref="D42" r:id="rId81"/>
+    <hyperlink ref="E42" r:id="rId82"/>
+    <hyperlink ref="D43" r:id="rId83"/>
+    <hyperlink ref="E43" r:id="rId84"/>
+    <hyperlink ref="D44" r:id="rId85"/>
+    <hyperlink ref="E44" r:id="rId86"/>
+    <hyperlink ref="D45" r:id="rId87"/>
+    <hyperlink ref="E45" r:id="rId88"/>
+    <hyperlink ref="D46" r:id="rId89"/>
+    <hyperlink ref="E46" r:id="rId90"/>
+    <hyperlink ref="D47" r:id="rId91"/>
+    <hyperlink ref="E47" r:id="rId92"/>
+    <hyperlink ref="D48" r:id="rId93"/>
+    <hyperlink ref="E48" r:id="rId94"/>
+    <hyperlink ref="D49" r:id="rId95"/>
+    <hyperlink ref="E49" r:id="rId96"/>
+    <hyperlink ref="D50" r:id="rId97"/>
+    <hyperlink ref="E50" r:id="rId98"/>
+    <hyperlink ref="D51" r:id="rId99"/>
+    <hyperlink ref="E51" r:id="rId100"/>
+    <hyperlink ref="D52" r:id="rId101"/>
+    <hyperlink ref="E52" r:id="rId102"/>
+    <hyperlink ref="D53" r:id="rId103"/>
+    <hyperlink ref="E53" r:id="rId104"/>
+    <hyperlink ref="D54" r:id="rId105"/>
+    <hyperlink ref="E54" r:id="rId106"/>
+    <hyperlink ref="D55" r:id="rId107"/>
+    <hyperlink ref="E55" r:id="rId108"/>
+    <hyperlink ref="D56" r:id="rId109"/>
+    <hyperlink ref="E56" r:id="rId110"/>
+    <hyperlink ref="D57" r:id="rId111"/>
+    <hyperlink ref="E57" r:id="rId112"/>
+    <hyperlink ref="D58" r:id="rId113"/>
+    <hyperlink ref="E58" r:id="rId114"/>
+    <hyperlink ref="D59" r:id="rId115"/>
+    <hyperlink ref="E59" r:id="rId116"/>
+    <hyperlink ref="D60" r:id="rId117"/>
+    <hyperlink ref="E60" r:id="rId118"/>
+    <hyperlink ref="D61" r:id="rId119"/>
+    <hyperlink ref="E61" r:id="rId120"/>
+    <hyperlink ref="D62" r:id="rId121"/>
+    <hyperlink ref="E62" r:id="rId122"/>
+    <hyperlink ref="D63" r:id="rId123"/>
+    <hyperlink ref="E63" r:id="rId124"/>
+    <hyperlink ref="D64" r:id="rId125"/>
+    <hyperlink ref="E64" r:id="rId126"/>
+    <hyperlink ref="D65" r:id="rId127"/>
+    <hyperlink ref="E65" r:id="rId128"/>
+    <hyperlink ref="D66" r:id="rId129"/>
+    <hyperlink ref="E66" r:id="rId130"/>
+    <hyperlink ref="D67" r:id="rId131"/>
+    <hyperlink ref="E67" r:id="rId132"/>
+    <hyperlink ref="D68" r:id="rId133"/>
+    <hyperlink ref="E68" r:id="rId134"/>
+    <hyperlink ref="D69" r:id="rId135"/>
+    <hyperlink ref="E69" r:id="rId136"/>
+    <hyperlink ref="D70" r:id="rId137"/>
+    <hyperlink ref="E70" r:id="rId138"/>
+    <hyperlink ref="D71" r:id="rId139"/>
+    <hyperlink ref="E71" r:id="rId140"/>
+    <hyperlink ref="D72" r:id="rId141"/>
+    <hyperlink ref="E72" r:id="rId142"/>
+    <hyperlink ref="D73" r:id="rId143"/>
+    <hyperlink ref="E73" r:id="rId144"/>
+    <hyperlink ref="D74" r:id="rId145"/>
+    <hyperlink ref="E74" r:id="rId146"/>
+    <hyperlink ref="D75" r:id="rId147"/>
+    <hyperlink ref="E75" r:id="rId148"/>
+    <hyperlink ref="D76" r:id="rId149"/>
+    <hyperlink ref="E76" r:id="rId150"/>
+    <hyperlink ref="D77" r:id="rId151"/>
+    <hyperlink ref="E77" r:id="rId152"/>
+    <hyperlink ref="D78" r:id="rId153"/>
+    <hyperlink ref="E78" r:id="rId154"/>
+    <hyperlink ref="D79" r:id="rId155"/>
+    <hyperlink ref="E79" r:id="rId156"/>
+    <hyperlink ref="D80" r:id="rId157"/>
+    <hyperlink ref="E80" r:id="rId158"/>
+    <hyperlink ref="D81" r:id="rId159"/>
+    <hyperlink ref="E81" r:id="rId160"/>
+    <hyperlink ref="D82" r:id="rId161"/>
+    <hyperlink ref="E82" r:id="rId162"/>
+    <hyperlink ref="D83" r:id="rId163"/>
+    <hyperlink ref="E83" r:id="rId164"/>
+    <hyperlink ref="D84" r:id="rId165"/>
+    <hyperlink ref="E84" r:id="rId166"/>
+    <hyperlink ref="D85" r:id="rId167"/>
+    <hyperlink ref="E85" r:id="rId168"/>
+    <hyperlink ref="D86" r:id="rId169"/>
+    <hyperlink ref="E86" r:id="rId170"/>
+    <hyperlink ref="D87" r:id="rId171"/>
+    <hyperlink ref="E87" r:id="rId172"/>
+    <hyperlink ref="D88" r:id="rId173"/>
+    <hyperlink ref="E88" r:id="rId174"/>
+    <hyperlink ref="D89" r:id="rId175"/>
+    <hyperlink ref="E89" r:id="rId176"/>
+    <hyperlink ref="D90" r:id="rId177"/>
+    <hyperlink ref="E90" r:id="rId178"/>
+    <hyperlink ref="D91" r:id="rId179"/>
+    <hyperlink ref="E91" r:id="rId180"/>
+    <hyperlink ref="D92" r:id="rId181"/>
+    <hyperlink ref="E92" r:id="rId182"/>
+    <hyperlink ref="D93" r:id="rId183"/>
+    <hyperlink ref="E93" r:id="rId184"/>
+    <hyperlink ref="D94" r:id="rId185"/>
+    <hyperlink ref="E94" r:id="rId186"/>
+    <hyperlink ref="D95" r:id="rId187"/>
+    <hyperlink ref="E95" r:id="rId188"/>
+    <hyperlink ref="D96" r:id="rId189"/>
+    <hyperlink ref="E96" r:id="rId190"/>
+    <hyperlink ref="D97" r:id="rId191"/>
+    <hyperlink ref="E97" r:id="rId192"/>
+    <hyperlink ref="D98" r:id="rId193"/>
+    <hyperlink ref="E98" r:id="rId194"/>
+    <hyperlink ref="D99" r:id="rId195"/>
+    <hyperlink ref="E99" r:id="rId196"/>
+    <hyperlink ref="D100" r:id="rId197"/>
+    <hyperlink ref="E100" r:id="rId198"/>
+    <hyperlink ref="D101" r:id="rId199"/>
+    <hyperlink ref="E101" r:id="rId200"/>
+    <hyperlink ref="D102" r:id="rId201"/>
+    <hyperlink ref="E102" r:id="rId202"/>
+    <hyperlink ref="D103" r:id="rId203"/>
+    <hyperlink ref="E103" r:id="rId204"/>
+    <hyperlink ref="D104" r:id="rId205"/>
+    <hyperlink ref="E104" r:id="rId206"/>
+    <hyperlink ref="D105" r:id="rId207"/>
+    <hyperlink ref="E105" r:id="rId208"/>
+    <hyperlink ref="D106" r:id="rId209"/>
+    <hyperlink ref="E106" r:id="rId210"/>
+    <hyperlink ref="D107" r:id="rId211"/>
+    <hyperlink ref="E107" r:id="rId212"/>
+    <hyperlink ref="D108" r:id="rId213"/>
+    <hyperlink ref="E108" r:id="rId214"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
